--- a/stock_historical_data/1wk/ASHOKA.NS.xlsx
+++ b/stock_historical_data/1wk/ASHOKA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q715"/>
+  <dimension ref="A1:R717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>detect_structure</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -576,6 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -629,6 +637,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -682,6 +693,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -735,6 +749,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -788,6 +805,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -841,6 +861,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -894,6 +917,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -947,6 +973,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1000,6 +1029,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1053,6 +1085,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1106,6 +1141,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1159,6 +1197,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1212,6 +1253,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1265,6 +1309,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,6 +1365,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1371,6 +1421,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1424,6 +1477,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1477,6 +1533,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1530,6 +1589,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1583,6 +1645,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1636,6 +1701,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1689,6 +1757,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1742,6 +1813,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1795,6 +1869,9 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1848,6 +1925,9 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1899,7 +1979,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1954,6 +2037,9 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2007,6 +2093,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2060,6 +2149,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2113,6 +2205,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2164,7 +2259,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2219,6 +2317,9 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2272,6 +2373,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2325,6 +2429,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2378,6 +2485,9 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2431,6 +2541,9 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2484,6 +2597,9 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2537,6 +2653,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2590,6 +2709,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2643,6 +2765,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2696,6 +2821,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2749,6 +2877,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2800,7 +2931,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2855,6 +2989,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2908,6 +3045,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2959,7 +3099,10 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3014,6 +3157,9 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3067,6 +3213,9 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3120,6 +3269,9 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3173,6 +3325,9 @@
       <c r="Q51" t="n">
         <v>1</v>
       </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3226,6 +3381,9 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3279,6 +3437,9 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3332,6 +3493,9 @@
       <c r="Q54" t="n">
         <v>2</v>
       </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3385,6 +3549,9 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3438,6 +3605,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3491,6 +3661,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3544,6 +3717,9 @@
       <c r="Q58" t="n">
         <v>1</v>
       </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3597,6 +3773,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3650,6 +3829,9 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3703,6 +3885,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3756,6 +3941,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3809,6 +3997,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3862,6 +4053,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3915,6 +4109,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3968,6 +4165,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4021,6 +4221,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4074,6 +4277,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4127,6 +4333,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -4180,6 +4389,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4233,6 +4445,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4286,6 +4501,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4339,6 +4557,9 @@
       <c r="Q73" t="n">
         <v>1</v>
       </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4392,6 +4613,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4445,6 +4669,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4498,6 +4725,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4551,6 +4781,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4604,6 +4837,9 @@
       <c r="Q78" t="n">
         <v>2</v>
       </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4657,6 +4893,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4710,6 +4949,9 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4763,6 +5005,9 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4816,6 +5061,9 @@
       <c r="Q82" t="n">
         <v>1</v>
       </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4869,6 +5117,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4922,6 +5173,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4975,6 +5229,9 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -5028,6 +5285,9 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -5081,6 +5341,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -5134,6 +5397,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -5187,6 +5453,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -5240,6 +5509,9 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5293,6 +5565,9 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5346,6 +5621,9 @@
       <c r="Q92" t="n">
         <v>1</v>
       </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5399,6 +5677,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5452,6 +5733,9 @@
       <c r="Q94" t="n">
         <v>0</v>
       </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5505,6 +5789,9 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5558,6 +5845,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5611,6 +5901,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5664,6 +5957,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5717,6 +6013,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5770,6 +6069,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5823,6 +6125,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5876,6 +6181,9 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5929,6 +6237,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5982,6 +6293,9 @@
       <c r="Q104" t="n">
         <v>2</v>
       </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -6035,6 +6349,9 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -6088,6 +6405,9 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -6141,6 +6461,9 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -6194,6 +6517,9 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -6247,6 +6573,9 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -6300,6 +6629,9 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6353,6 +6685,9 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6406,6 +6741,9 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6459,6 +6797,9 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6512,6 +6853,9 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6565,6 +6909,9 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6618,6 +6965,9 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6671,6 +7021,9 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6724,6 +7077,9 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6777,6 +7133,9 @@
       <c r="Q119" t="n">
         <v>0</v>
       </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6830,6 +7189,9 @@
       <c r="Q120" t="n">
         <v>1</v>
       </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6883,6 +7245,9 @@
       <c r="Q121" t="n">
         <v>0</v>
       </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6936,6 +7301,9 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6989,6 +7357,9 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -7042,6 +7413,9 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -7095,6 +7469,9 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -7148,6 +7525,9 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -7201,6 +7581,9 @@
       <c r="Q127" t="n">
         <v>1</v>
       </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -7254,6 +7637,9 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -7307,6 +7693,9 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -7360,6 +7749,9 @@
       <c r="Q130" t="n">
         <v>2</v>
       </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7413,6 +7805,9 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7466,6 +7861,9 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7519,6 +7917,9 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7572,6 +7973,9 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7625,6 +8029,9 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7678,6 +8085,9 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7731,6 +8141,9 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7784,6 +8197,9 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7837,6 +8253,9 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7890,6 +8309,9 @@
       <c r="Q140" t="n">
         <v>1</v>
       </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7943,6 +8365,9 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7996,6 +8421,9 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -8049,6 +8477,9 @@
       <c r="Q143" t="n">
         <v>2</v>
       </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -8102,6 +8533,9 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -8155,6 +8589,9 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -8208,6 +8645,9 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
+      <c r="R146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -8261,6 +8701,9 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -8314,6 +8757,9 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -8367,6 +8813,9 @@
       <c r="Q149" t="n">
         <v>0</v>
       </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -8420,6 +8869,9 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
+      <c r="R150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8473,6 +8925,9 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8526,6 +8981,9 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8579,6 +9037,9 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8632,6 +9093,9 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8685,6 +9149,9 @@
       <c r="Q155" t="n">
         <v>1</v>
       </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8738,6 +9205,9 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
+      <c r="R156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8791,6 +9261,9 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8844,6 +9317,9 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8897,6 +9373,9 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8950,6 +9429,9 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -9003,6 +9485,9 @@
       <c r="Q161" t="n">
         <v>0</v>
       </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -9056,6 +9541,9 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -9109,6 +9597,9 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -9162,6 +9653,9 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -9215,6 +9709,9 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -9268,6 +9765,9 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
+      <c r="R166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -9321,6 +9821,9 @@
       <c r="Q167" t="n">
         <v>1</v>
       </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -9374,6 +9877,9 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
+      <c r="R168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -9427,6 +9933,9 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -9480,6 +9989,9 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9533,6 +10045,9 @@
       <c r="Q171" t="n">
         <v>0</v>
       </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9586,6 +10101,9 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9639,6 +10157,9 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9692,6 +10213,9 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9745,6 +10269,9 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9798,6 +10325,9 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9851,6 +10381,9 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9904,6 +10437,9 @@
       <c r="Q178" t="n">
         <v>0</v>
       </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9957,6 +10493,9 @@
       <c r="Q179" t="n">
         <v>2</v>
       </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -10010,6 +10549,9 @@
       <c r="Q180" t="n">
         <v>1</v>
       </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -10063,6 +10605,9 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -10116,6 +10661,9 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -10169,6 +10717,9 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -10222,6 +10773,9 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -10275,6 +10829,9 @@
       <c r="Q185" t="n">
         <v>0</v>
       </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -10328,6 +10885,9 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -10381,6 +10941,9 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -10434,6 +10997,9 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -10487,6 +11053,9 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -10540,6 +11109,9 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -10593,6 +11165,9 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10646,6 +11221,9 @@
       <c r="Q192" t="n">
         <v>0</v>
       </c>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10699,6 +11277,9 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -10752,6 +11333,9 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -10805,6 +11389,9 @@
       <c r="Q195" t="n">
         <v>0</v>
       </c>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -10858,6 +11445,9 @@
       <c r="Q196" t="n">
         <v>0</v>
       </c>
+      <c r="R196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -10911,6 +11501,9 @@
       <c r="Q197" t="n">
         <v>0</v>
       </c>
+      <c r="R197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10964,6 +11557,9 @@
       <c r="Q198" t="n">
         <v>0</v>
       </c>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -11017,6 +11613,9 @@
       <c r="Q199" t="n">
         <v>0</v>
       </c>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -11070,6 +11669,9 @@
       <c r="Q200" t="n">
         <v>0</v>
       </c>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -11123,6 +11725,9 @@
       <c r="Q201" t="n">
         <v>0</v>
       </c>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -11176,6 +11781,9 @@
       <c r="Q202" t="n">
         <v>0</v>
       </c>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -11229,6 +11837,9 @@
       <c r="Q203" t="n">
         <v>0</v>
       </c>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -11282,6 +11893,9 @@
       <c r="Q204" t="n">
         <v>2</v>
       </c>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -11335,6 +11949,9 @@
       <c r="Q205" t="n">
         <v>0</v>
       </c>
+      <c r="R205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -11388,6 +12005,9 @@
       <c r="Q206" t="n">
         <v>1</v>
       </c>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -11441,6 +12061,9 @@
       <c r="Q207" t="n">
         <v>0</v>
       </c>
+      <c r="R207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -11494,6 +12117,9 @@
       <c r="Q208" t="n">
         <v>0</v>
       </c>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -11547,6 +12173,9 @@
       <c r="Q209" t="n">
         <v>0</v>
       </c>
+      <c r="R209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -11600,6 +12229,9 @@
       <c r="Q210" t="n">
         <v>0</v>
       </c>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11653,6 +12285,9 @@
       <c r="Q211" t="n">
         <v>0</v>
       </c>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -11706,6 +12341,9 @@
       <c r="Q212" t="n">
         <v>2</v>
       </c>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -11759,6 +12397,9 @@
       <c r="Q213" t="n">
         <v>0</v>
       </c>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -11812,6 +12453,9 @@
       <c r="Q214" t="n">
         <v>0</v>
       </c>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -11865,6 +12509,9 @@
       <c r="Q215" t="n">
         <v>0</v>
       </c>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -11918,6 +12565,9 @@
       <c r="Q216" t="n">
         <v>0</v>
       </c>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11971,6 +12621,9 @@
       <c r="Q217" t="n">
         <v>1</v>
       </c>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -12024,6 +12677,9 @@
       <c r="Q218" t="n">
         <v>0</v>
       </c>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -12077,6 +12733,9 @@
       <c r="Q219" t="n">
         <v>0</v>
       </c>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -12130,6 +12789,9 @@
       <c r="Q220" t="n">
         <v>0</v>
       </c>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -12183,6 +12845,9 @@
       <c r="Q221" t="n">
         <v>0</v>
       </c>
+      <c r="R221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -12236,6 +12901,9 @@
       <c r="Q222" t="n">
         <v>0</v>
       </c>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -12289,6 +12957,9 @@
       <c r="Q223" t="n">
         <v>0</v>
       </c>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -12342,6 +13013,9 @@
       <c r="Q224" t="n">
         <v>0</v>
       </c>
+      <c r="R224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -12395,6 +13069,9 @@
       <c r="Q225" t="n">
         <v>0</v>
       </c>
+      <c r="R225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -12448,6 +13125,9 @@
       <c r="Q226" t="n">
         <v>1</v>
       </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -12501,6 +13181,9 @@
       <c r="Q227" t="n">
         <v>0</v>
       </c>
+      <c r="R227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -12554,6 +13237,9 @@
       <c r="Q228" t="n">
         <v>0</v>
       </c>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -12607,6 +13293,9 @@
       <c r="Q229" t="n">
         <v>2</v>
       </c>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -12660,6 +13349,9 @@
       <c r="Q230" t="n">
         <v>0</v>
       </c>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -12713,6 +13405,9 @@
       <c r="Q231" t="n">
         <v>0</v>
       </c>
+      <c r="R231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -12766,6 +13461,9 @@
       <c r="Q232" t="n">
         <v>0</v>
       </c>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -12819,6 +13517,9 @@
       <c r="Q233" t="n">
         <v>1</v>
       </c>
+      <c r="R233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -12872,6 +13573,9 @@
       <c r="Q234" t="n">
         <v>0</v>
       </c>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -12925,6 +13629,9 @@
       <c r="Q235" t="n">
         <v>0</v>
       </c>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -12978,6 +13685,9 @@
       <c r="Q236" t="n">
         <v>0</v>
       </c>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -13031,6 +13741,9 @@
       <c r="Q237" t="n">
         <v>0</v>
       </c>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -13084,6 +13797,9 @@
       <c r="Q238" t="n">
         <v>0</v>
       </c>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -13137,6 +13853,9 @@
       <c r="Q239" t="n">
         <v>0</v>
       </c>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -13190,6 +13909,9 @@
       <c r="Q240" t="n">
         <v>0</v>
       </c>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -13243,6 +13965,9 @@
       <c r="Q241" t="n">
         <v>0</v>
       </c>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -13296,6 +14021,9 @@
       <c r="Q242" t="n">
         <v>0</v>
       </c>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -13349,6 +14077,9 @@
       <c r="Q243" t="n">
         <v>2</v>
       </c>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -13402,6 +14133,9 @@
       <c r="Q244" t="n">
         <v>0</v>
       </c>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -13455,6 +14189,9 @@
       <c r="Q245" t="n">
         <v>1</v>
       </c>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -13508,6 +14245,9 @@
       <c r="Q246" t="n">
         <v>0</v>
       </c>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -13561,6 +14301,9 @@
       <c r="Q247" t="n">
         <v>0</v>
       </c>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -13614,6 +14357,9 @@
       <c r="Q248" t="n">
         <v>0</v>
       </c>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -13667,6 +14413,9 @@
       <c r="Q249" t="n">
         <v>0</v>
       </c>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -13720,6 +14469,9 @@
       <c r="Q250" t="n">
         <v>0</v>
       </c>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -13773,6 +14525,9 @@
       <c r="Q251" t="n">
         <v>0</v>
       </c>
+      <c r="R251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -13826,6 +14581,9 @@
       <c r="Q252" t="n">
         <v>0</v>
       </c>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -13879,6 +14637,9 @@
       <c r="Q253" t="n">
         <v>0</v>
       </c>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -13932,6 +14693,9 @@
       <c r="Q254" t="n">
         <v>0</v>
       </c>
+      <c r="R254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -13985,6 +14749,9 @@
       <c r="Q255" t="n">
         <v>0</v>
       </c>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -14038,6 +14805,9 @@
       <c r="Q256" t="n">
         <v>2</v>
       </c>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -14091,6 +14861,9 @@
       <c r="Q257" t="n">
         <v>0</v>
       </c>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -14144,6 +14917,9 @@
       <c r="Q258" t="n">
         <v>0</v>
       </c>
+      <c r="R258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -14197,6 +14973,9 @@
       <c r="Q259" t="n">
         <v>0</v>
       </c>
+      <c r="R259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -14250,6 +15029,9 @@
       <c r="Q260" t="n">
         <v>0</v>
       </c>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -14303,6 +15085,9 @@
       <c r="Q261" t="n">
         <v>0</v>
       </c>
+      <c r="R261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -14356,6 +15141,9 @@
       <c r="Q262" t="n">
         <v>1</v>
       </c>
+      <c r="R262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -14409,6 +15197,9 @@
       <c r="Q263" t="n">
         <v>0</v>
       </c>
+      <c r="R263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -14462,6 +15253,9 @@
       <c r="Q264" t="n">
         <v>0</v>
       </c>
+      <c r="R264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -14515,6 +15309,9 @@
       <c r="Q265" t="n">
         <v>0</v>
       </c>
+      <c r="R265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -14568,6 +15365,9 @@
       <c r="Q266" t="n">
         <v>0</v>
       </c>
+      <c r="R266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -14621,6 +15421,9 @@
       <c r="Q267" t="n">
         <v>0</v>
       </c>
+      <c r="R267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -14674,6 +15477,9 @@
       <c r="Q268" t="n">
         <v>0</v>
       </c>
+      <c r="R268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -14727,6 +15533,9 @@
       <c r="Q269" t="n">
         <v>0</v>
       </c>
+      <c r="R269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -14780,6 +15589,9 @@
       <c r="Q270" t="n">
         <v>0</v>
       </c>
+      <c r="R270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -14833,6 +15645,9 @@
       <c r="Q271" t="n">
         <v>0</v>
       </c>
+      <c r="R271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -14886,6 +15701,9 @@
       <c r="Q272" t="n">
         <v>1</v>
       </c>
+      <c r="R272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -14939,6 +15757,9 @@
       <c r="Q273" t="n">
         <v>0</v>
       </c>
+      <c r="R273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -14992,6 +15813,9 @@
       <c r="Q274" t="n">
         <v>0</v>
       </c>
+      <c r="R274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -15045,6 +15869,9 @@
       <c r="Q275" t="n">
         <v>0</v>
       </c>
+      <c r="R275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -15098,6 +15925,9 @@
       <c r="Q276" t="n">
         <v>0</v>
       </c>
+      <c r="R276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -15151,6 +15981,9 @@
       <c r="Q277" t="n">
         <v>0</v>
       </c>
+      <c r="R277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -15204,6 +16037,9 @@
       <c r="Q278" t="n">
         <v>0</v>
       </c>
+      <c r="R278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -15257,6 +16093,9 @@
       <c r="Q279" t="n">
         <v>2</v>
       </c>
+      <c r="R279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -15310,6 +16149,9 @@
       <c r="Q280" t="n">
         <v>0</v>
       </c>
+      <c r="R280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -15363,6 +16205,9 @@
       <c r="Q281" t="n">
         <v>0</v>
       </c>
+      <c r="R281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -15416,6 +16261,9 @@
       <c r="Q282" t="n">
         <v>0</v>
       </c>
+      <c r="R282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -15469,6 +16317,9 @@
       <c r="Q283" t="n">
         <v>0</v>
       </c>
+      <c r="R283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -15522,6 +16373,9 @@
       <c r="Q284" t="n">
         <v>0</v>
       </c>
+      <c r="R284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -15575,6 +16429,9 @@
       <c r="Q285" t="n">
         <v>0</v>
       </c>
+      <c r="R285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -15628,6 +16485,9 @@
       <c r="Q286" t="n">
         <v>1</v>
       </c>
+      <c r="R286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -15681,6 +16541,9 @@
       <c r="Q287" t="n">
         <v>0</v>
       </c>
+      <c r="R287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -15734,6 +16597,9 @@
       <c r="Q288" t="n">
         <v>0</v>
       </c>
+      <c r="R288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -15787,6 +16653,9 @@
       <c r="Q289" t="n">
         <v>0</v>
       </c>
+      <c r="R289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -15840,6 +16709,9 @@
       <c r="Q290" t="n">
         <v>0</v>
       </c>
+      <c r="R290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -15893,6 +16765,9 @@
       <c r="Q291" t="n">
         <v>0</v>
       </c>
+      <c r="R291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -15946,6 +16821,9 @@
       <c r="Q292" t="n">
         <v>0</v>
       </c>
+      <c r="R292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -15999,6 +16877,9 @@
       <c r="Q293" t="n">
         <v>0</v>
       </c>
+      <c r="R293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -16052,6 +16933,9 @@
       <c r="Q294" t="n">
         <v>1</v>
       </c>
+      <c r="R294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -16105,6 +16989,9 @@
       <c r="Q295" t="n">
         <v>0</v>
       </c>
+      <c r="R295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -16158,6 +17045,9 @@
       <c r="Q296" t="n">
         <v>0</v>
       </c>
+      <c r="R296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -16211,6 +17101,9 @@
       <c r="Q297" t="n">
         <v>0</v>
       </c>
+      <c r="R297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -16264,6 +17157,9 @@
       <c r="Q298" t="n">
         <v>0</v>
       </c>
+      <c r="R298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -16317,6 +17213,9 @@
       <c r="Q299" t="n">
         <v>0</v>
       </c>
+      <c r="R299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -16370,6 +17269,9 @@
       <c r="Q300" t="n">
         <v>0</v>
       </c>
+      <c r="R300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -16423,6 +17325,9 @@
       <c r="Q301" t="n">
         <v>0</v>
       </c>
+      <c r="R301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -16476,6 +17381,9 @@
       <c r="Q302" t="n">
         <v>0</v>
       </c>
+      <c r="R302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -16529,6 +17437,9 @@
       <c r="Q303" t="n">
         <v>1</v>
       </c>
+      <c r="R303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -16582,6 +17493,9 @@
       <c r="Q304" t="n">
         <v>0</v>
       </c>
+      <c r="R304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -16635,6 +17549,9 @@
       <c r="Q305" t="n">
         <v>0</v>
       </c>
+      <c r="R305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -16688,6 +17605,9 @@
       <c r="Q306" t="n">
         <v>0</v>
       </c>
+      <c r="R306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -16741,6 +17661,9 @@
       <c r="Q307" t="n">
         <v>0</v>
       </c>
+      <c r="R307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -16794,6 +17717,9 @@
       <c r="Q308" t="n">
         <v>0</v>
       </c>
+      <c r="R308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -16847,6 +17773,9 @@
       <c r="Q309" t="n">
         <v>2</v>
       </c>
+      <c r="R309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -16900,6 +17829,9 @@
       <c r="Q310" t="n">
         <v>0</v>
       </c>
+      <c r="R310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -16953,6 +17885,9 @@
       <c r="Q311" t="n">
         <v>0</v>
       </c>
+      <c r="R311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -17006,6 +17941,9 @@
       <c r="Q312" t="n">
         <v>0</v>
       </c>
+      <c r="R312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -17059,6 +17997,9 @@
       <c r="Q313" t="n">
         <v>0</v>
       </c>
+      <c r="R313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -17112,6 +18053,9 @@
       <c r="Q314" t="n">
         <v>1</v>
       </c>
+      <c r="R314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -17165,6 +18109,9 @@
       <c r="Q315" t="n">
         <v>0</v>
       </c>
+      <c r="R315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -17218,6 +18165,9 @@
       <c r="Q316" t="n">
         <v>0</v>
       </c>
+      <c r="R316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -17271,6 +18221,9 @@
       <c r="Q317" t="n">
         <v>0</v>
       </c>
+      <c r="R317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -17324,6 +18277,9 @@
       <c r="Q318" t="n">
         <v>2</v>
       </c>
+      <c r="R318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -17377,6 +18333,9 @@
       <c r="Q319" t="n">
         <v>0</v>
       </c>
+      <c r="R319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -17430,6 +18389,9 @@
       <c r="Q320" t="n">
         <v>0</v>
       </c>
+      <c r="R320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -17483,6 +18445,9 @@
       <c r="Q321" t="n">
         <v>0</v>
       </c>
+      <c r="R321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -17536,6 +18501,9 @@
       <c r="Q322" t="n">
         <v>0</v>
       </c>
+      <c r="R322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -17589,6 +18557,9 @@
       <c r="Q323" t="n">
         <v>0</v>
       </c>
+      <c r="R323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -17642,6 +18613,9 @@
       <c r="Q324" t="n">
         <v>0</v>
       </c>
+      <c r="R324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -17695,6 +18669,9 @@
       <c r="Q325" t="n">
         <v>1</v>
       </c>
+      <c r="R325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -17748,6 +18725,9 @@
       <c r="Q326" t="n">
         <v>0</v>
       </c>
+      <c r="R326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -17801,6 +18781,9 @@
       <c r="Q327" t="n">
         <v>0</v>
       </c>
+      <c r="R327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -17854,6 +18837,9 @@
       <c r="Q328" t="n">
         <v>0</v>
       </c>
+      <c r="R328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -17907,6 +18893,9 @@
       <c r="Q329" t="n">
         <v>0</v>
       </c>
+      <c r="R329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -17960,6 +18949,9 @@
       <c r="Q330" t="n">
         <v>0</v>
       </c>
+      <c r="R330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -18013,6 +19005,9 @@
       <c r="Q331" t="n">
         <v>0</v>
       </c>
+      <c r="R331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -18066,6 +19061,9 @@
       <c r="Q332" t="n">
         <v>0</v>
       </c>
+      <c r="R332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -18119,6 +19117,9 @@
       <c r="Q333" t="n">
         <v>0</v>
       </c>
+      <c r="R333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -18172,6 +19173,9 @@
       <c r="Q334" t="n">
         <v>0</v>
       </c>
+      <c r="R334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -18225,6 +19229,9 @@
       <c r="Q335" t="n">
         <v>0</v>
       </c>
+      <c r="R335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -18278,6 +19285,9 @@
       <c r="Q336" t="n">
         <v>0</v>
       </c>
+      <c r="R336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -18331,6 +19341,9 @@
       <c r="Q337" t="n">
         <v>0</v>
       </c>
+      <c r="R337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -18384,6 +19397,9 @@
       <c r="Q338" t="n">
         <v>2</v>
       </c>
+      <c r="R338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -18437,6 +19453,9 @@
       <c r="Q339" t="n">
         <v>0</v>
       </c>
+      <c r="R339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -18490,6 +19509,9 @@
       <c r="Q340" t="n">
         <v>0</v>
       </c>
+      <c r="R340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -18543,6 +19565,9 @@
       <c r="Q341" t="n">
         <v>0</v>
       </c>
+      <c r="R341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -18596,6 +19621,9 @@
       <c r="Q342" t="n">
         <v>0</v>
       </c>
+      <c r="R342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -18649,6 +19677,9 @@
       <c r="Q343" t="n">
         <v>0</v>
       </c>
+      <c r="R343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -18702,6 +19733,9 @@
       <c r="Q344" t="n">
         <v>0</v>
       </c>
+      <c r="R344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -18755,6 +19789,9 @@
       <c r="Q345" t="n">
         <v>0</v>
       </c>
+      <c r="R345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -18808,6 +19845,9 @@
       <c r="Q346" t="n">
         <v>2</v>
       </c>
+      <c r="R346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -18861,6 +19901,9 @@
       <c r="Q347" t="n">
         <v>0</v>
       </c>
+      <c r="R347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -18914,6 +19957,9 @@
       <c r="Q348" t="n">
         <v>0</v>
       </c>
+      <c r="R348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -18967,6 +20013,9 @@
       <c r="Q349" t="n">
         <v>0</v>
       </c>
+      <c r="R349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -19020,6 +20069,9 @@
       <c r="Q350" t="n">
         <v>0</v>
       </c>
+      <c r="R350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -19073,6 +20125,9 @@
       <c r="Q351" t="n">
         <v>0</v>
       </c>
+      <c r="R351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -19126,6 +20181,9 @@
       <c r="Q352" t="n">
         <v>2</v>
       </c>
+      <c r="R352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -19179,6 +20237,9 @@
       <c r="Q353" t="n">
         <v>0</v>
       </c>
+      <c r="R353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -19232,6 +20293,9 @@
       <c r="Q354" t="n">
         <v>0</v>
       </c>
+      <c r="R354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -19285,6 +20349,9 @@
       <c r="Q355" t="n">
         <v>0</v>
       </c>
+      <c r="R355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -19338,6 +20405,9 @@
       <c r="Q356" t="n">
         <v>0</v>
       </c>
+      <c r="R356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -19391,6 +20461,9 @@
       <c r="Q357" t="n">
         <v>0</v>
       </c>
+      <c r="R357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -19444,6 +20517,9 @@
       <c r="Q358" t="n">
         <v>0</v>
       </c>
+      <c r="R358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -19497,6 +20573,9 @@
       <c r="Q359" t="n">
         <v>0</v>
       </c>
+      <c r="R359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -19550,6 +20629,9 @@
       <c r="Q360" t="n">
         <v>0</v>
       </c>
+      <c r="R360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -19603,6 +20685,9 @@
       <c r="Q361" t="n">
         <v>0</v>
       </c>
+      <c r="R361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -19656,6 +20741,9 @@
       <c r="Q362" t="n">
         <v>0</v>
       </c>
+      <c r="R362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -19709,6 +20797,9 @@
       <c r="Q363" t="n">
         <v>0</v>
       </c>
+      <c r="R363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -19762,6 +20853,9 @@
       <c r="Q364" t="n">
         <v>1</v>
       </c>
+      <c r="R364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -19815,6 +20909,9 @@
       <c r="Q365" t="n">
         <v>0</v>
       </c>
+      <c r="R365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -19868,6 +20965,9 @@
       <c r="Q366" t="n">
         <v>0</v>
       </c>
+      <c r="R366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -19921,6 +21021,9 @@
       <c r="Q367" t="n">
         <v>0</v>
       </c>
+      <c r="R367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -19974,6 +21077,9 @@
       <c r="Q368" t="n">
         <v>0</v>
       </c>
+      <c r="R368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -20027,6 +21133,9 @@
       <c r="Q369" t="n">
         <v>2</v>
       </c>
+      <c r="R369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -20080,6 +21189,9 @@
       <c r="Q370" t="n">
         <v>0</v>
       </c>
+      <c r="R370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
@@ -20133,6 +21245,9 @@
       <c r="Q371" t="n">
         <v>1</v>
       </c>
+      <c r="R371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
@@ -20186,6 +21301,9 @@
       <c r="Q372" t="n">
         <v>0</v>
       </c>
+      <c r="R372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -20239,6 +21357,9 @@
       <c r="Q373" t="n">
         <v>0</v>
       </c>
+      <c r="R373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -20292,6 +21413,9 @@
       <c r="Q374" t="n">
         <v>0</v>
       </c>
+      <c r="R374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
@@ -20345,6 +21469,9 @@
       <c r="Q375" t="n">
         <v>0</v>
       </c>
+      <c r="R375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
@@ -20398,6 +21525,9 @@
       <c r="Q376" t="n">
         <v>0</v>
       </c>
+      <c r="R376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
@@ -20451,6 +21581,9 @@
       <c r="Q377" t="n">
         <v>0</v>
       </c>
+      <c r="R377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
@@ -20504,6 +21637,9 @@
       <c r="Q378" t="n">
         <v>0</v>
       </c>
+      <c r="R378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
@@ -20557,6 +21693,9 @@
       <c r="Q379" t="n">
         <v>0</v>
       </c>
+      <c r="R379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
@@ -20610,6 +21749,9 @@
       <c r="Q380" t="n">
         <v>2</v>
       </c>
+      <c r="R380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
@@ -20663,6 +21805,9 @@
       <c r="Q381" t="n">
         <v>0</v>
       </c>
+      <c r="R381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -20716,6 +21861,9 @@
       <c r="Q382" t="n">
         <v>0</v>
       </c>
+      <c r="R382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
@@ -20769,6 +21917,9 @@
       <c r="Q383" t="n">
         <v>0</v>
       </c>
+      <c r="R383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
@@ -20822,6 +21973,9 @@
       <c r="Q384" t="n">
         <v>0</v>
       </c>
+      <c r="R384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
@@ -20875,6 +22029,9 @@
       <c r="Q385" t="n">
         <v>0</v>
       </c>
+      <c r="R385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
@@ -20928,6 +22085,9 @@
       <c r="Q386" t="n">
         <v>0</v>
       </c>
+      <c r="R386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
@@ -20981,6 +22141,9 @@
       <c r="Q387" t="n">
         <v>0</v>
       </c>
+      <c r="R387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
@@ -21034,6 +22197,9 @@
       <c r="Q388" t="n">
         <v>0</v>
       </c>
+      <c r="R388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
@@ -21087,6 +22253,9 @@
       <c r="Q389" t="n">
         <v>0</v>
       </c>
+      <c r="R389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
@@ -21140,6 +22309,9 @@
       <c r="Q390" t="n">
         <v>1</v>
       </c>
+      <c r="R390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
@@ -21193,6 +22365,9 @@
       <c r="Q391" t="n">
         <v>0</v>
       </c>
+      <c r="R391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
@@ -21246,6 +22421,9 @@
       <c r="Q392" t="n">
         <v>0</v>
       </c>
+      <c r="R392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
@@ -21299,6 +22477,9 @@
       <c r="Q393" t="n">
         <v>0</v>
       </c>
+      <c r="R393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
@@ -21352,6 +22533,9 @@
       <c r="Q394" t="n">
         <v>0</v>
       </c>
+      <c r="R394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
@@ -21405,6 +22589,9 @@
       <c r="Q395" t="n">
         <v>0</v>
       </c>
+      <c r="R395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
@@ -21458,6 +22645,9 @@
       <c r="Q396" t="n">
         <v>0</v>
       </c>
+      <c r="R396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
@@ -21511,6 +22701,9 @@
       <c r="Q397" t="n">
         <v>0</v>
       </c>
+      <c r="R397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
@@ -21564,6 +22757,9 @@
       <c r="Q398" t="n">
         <v>0</v>
       </c>
+      <c r="R398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
@@ -21617,6 +22813,9 @@
       <c r="Q399" t="n">
         <v>0</v>
       </c>
+      <c r="R399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
@@ -21670,6 +22869,9 @@
       <c r="Q400" t="n">
         <v>0</v>
       </c>
+      <c r="R400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
@@ -21723,6 +22925,9 @@
       <c r="Q401" t="n">
         <v>0</v>
       </c>
+      <c r="R401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
@@ -21776,6 +22981,9 @@
       <c r="Q402" t="n">
         <v>2</v>
       </c>
+      <c r="R402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
@@ -21829,6 +23037,9 @@
       <c r="Q403" t="n">
         <v>0</v>
       </c>
+      <c r="R403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
@@ -21882,6 +23093,9 @@
       <c r="Q404" t="n">
         <v>0</v>
       </c>
+      <c r="R404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
@@ -21935,6 +23149,9 @@
       <c r="Q405" t="n">
         <v>0</v>
       </c>
+      <c r="R405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
@@ -21988,6 +23205,9 @@
       <c r="Q406" t="n">
         <v>0</v>
       </c>
+      <c r="R406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
@@ -22041,6 +23261,9 @@
       <c r="Q407" t="n">
         <v>0</v>
       </c>
+      <c r="R407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
@@ -22094,6 +23317,9 @@
       <c r="Q408" t="n">
         <v>0</v>
       </c>
+      <c r="R408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
@@ -22147,6 +23373,9 @@
       <c r="Q409" t="n">
         <v>0</v>
       </c>
+      <c r="R409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
@@ -22200,6 +23429,9 @@
       <c r="Q410" t="n">
         <v>1</v>
       </c>
+      <c r="R410" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
@@ -22253,6 +23485,9 @@
       <c r="Q411" t="n">
         <v>0</v>
       </c>
+      <c r="R411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
@@ -22306,6 +23541,9 @@
       <c r="Q412" t="n">
         <v>2</v>
       </c>
+      <c r="R412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
@@ -22359,6 +23597,9 @@
       <c r="Q413" t="n">
         <v>0</v>
       </c>
+      <c r="R413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
@@ -22412,6 +23653,9 @@
       <c r="Q414" t="n">
         <v>0</v>
       </c>
+      <c r="R414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
@@ -22465,6 +23709,9 @@
       <c r="Q415" t="n">
         <v>0</v>
       </c>
+      <c r="R415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
@@ -22518,6 +23765,9 @@
       <c r="Q416" t="n">
         <v>0</v>
       </c>
+      <c r="R416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
@@ -22571,6 +23821,9 @@
       <c r="Q417" t="n">
         <v>0</v>
       </c>
+      <c r="R417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
@@ -22624,6 +23877,9 @@
       <c r="Q418" t="n">
         <v>0</v>
       </c>
+      <c r="R418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
@@ -22677,6 +23933,9 @@
       <c r="Q419" t="n">
         <v>0</v>
       </c>
+      <c r="R419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
@@ -22730,6 +23989,9 @@
       <c r="Q420" t="n">
         <v>0</v>
       </c>
+      <c r="R420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
@@ -22783,6 +24045,9 @@
       <c r="Q421" t="n">
         <v>0</v>
       </c>
+      <c r="R421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
@@ -22836,6 +24101,9 @@
       <c r="Q422" t="n">
         <v>0</v>
       </c>
+      <c r="R422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
@@ -22889,6 +24157,9 @@
       <c r="Q423" t="n">
         <v>1</v>
       </c>
+      <c r="R423" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
@@ -22942,6 +24213,9 @@
       <c r="Q424" t="n">
         <v>0</v>
       </c>
+      <c r="R424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
@@ -22995,6 +24269,9 @@
       <c r="Q425" t="n">
         <v>0</v>
       </c>
+      <c r="R425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
@@ -23048,6 +24325,9 @@
       <c r="Q426" t="n">
         <v>0</v>
       </c>
+      <c r="R426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
@@ -23101,6 +24381,9 @@
       <c r="Q427" t="n">
         <v>0</v>
       </c>
+      <c r="R427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
@@ -23154,6 +24437,9 @@
       <c r="Q428" t="n">
         <v>0</v>
       </c>
+      <c r="R428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
@@ -23207,6 +24493,9 @@
       <c r="Q429" t="n">
         <v>0</v>
       </c>
+      <c r="R429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
@@ -23260,6 +24549,9 @@
       <c r="Q430" t="n">
         <v>2</v>
       </c>
+      <c r="R430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
@@ -23313,6 +24605,9 @@
       <c r="Q431" t="n">
         <v>0</v>
       </c>
+      <c r="R431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
@@ -23366,6 +24661,9 @@
       <c r="Q432" t="n">
         <v>0</v>
       </c>
+      <c r="R432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
@@ -23419,6 +24717,9 @@
       <c r="Q433" t="n">
         <v>0</v>
       </c>
+      <c r="R433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
@@ -23472,6 +24773,9 @@
       <c r="Q434" t="n">
         <v>0</v>
       </c>
+      <c r="R434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
@@ -23525,6 +24829,9 @@
       <c r="Q435" t="n">
         <v>0</v>
       </c>
+      <c r="R435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
@@ -23578,6 +24885,9 @@
       <c r="Q436" t="n">
         <v>0</v>
       </c>
+      <c r="R436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
@@ -23631,6 +24941,9 @@
       <c r="Q437" t="n">
         <v>0</v>
       </c>
+      <c r="R437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
@@ -23684,6 +24997,9 @@
       <c r="Q438" t="n">
         <v>0</v>
       </c>
+      <c r="R438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
@@ -23737,6 +25053,9 @@
       <c r="Q439" t="n">
         <v>2</v>
       </c>
+      <c r="R439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
@@ -23790,6 +25109,9 @@
       <c r="Q440" t="n">
         <v>0</v>
       </c>
+      <c r="R440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
@@ -23843,6 +25165,9 @@
       <c r="Q441" t="n">
         <v>0</v>
       </c>
+      <c r="R441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
@@ -23896,6 +25221,9 @@
       <c r="Q442" t="n">
         <v>0</v>
       </c>
+      <c r="R442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
@@ -23949,6 +25277,9 @@
       <c r="Q443" t="n">
         <v>0</v>
       </c>
+      <c r="R443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
@@ -24002,6 +25333,9 @@
       <c r="Q444" t="n">
         <v>1</v>
       </c>
+      <c r="R444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
@@ -24055,6 +25389,9 @@
       <c r="Q445" t="n">
         <v>0</v>
       </c>
+      <c r="R445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
@@ -24108,6 +25445,9 @@
       <c r="Q446" t="n">
         <v>0</v>
       </c>
+      <c r="R446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
@@ -24161,6 +25501,9 @@
       <c r="Q447" t="n">
         <v>2</v>
       </c>
+      <c r="R447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
@@ -24214,6 +25557,9 @@
       <c r="Q448" t="n">
         <v>0</v>
       </c>
+      <c r="R448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
@@ -24267,6 +25613,9 @@
       <c r="Q449" t="n">
         <v>0</v>
       </c>
+      <c r="R449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
@@ -24320,6 +25669,9 @@
       <c r="Q450" t="n">
         <v>0</v>
       </c>
+      <c r="R450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
@@ -24373,6 +25725,9 @@
       <c r="Q451" t="n">
         <v>0</v>
       </c>
+      <c r="R451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
@@ -24426,6 +25781,9 @@
       <c r="Q452" t="n">
         <v>0</v>
       </c>
+      <c r="R452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
@@ -24479,6 +25837,9 @@
       <c r="Q453" t="n">
         <v>0</v>
       </c>
+      <c r="R453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
@@ -24532,6 +25893,9 @@
       <c r="Q454" t="n">
         <v>0</v>
       </c>
+      <c r="R454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
@@ -24585,6 +25949,9 @@
       <c r="Q455" t="n">
         <v>0</v>
       </c>
+      <c r="R455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
@@ -24638,6 +26005,9 @@
       <c r="Q456" t="n">
         <v>1</v>
       </c>
+      <c r="R456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
@@ -24691,6 +26061,9 @@
       <c r="Q457" t="n">
         <v>0</v>
       </c>
+      <c r="R457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
@@ -24744,6 +26117,9 @@
       <c r="Q458" t="n">
         <v>2</v>
       </c>
+      <c r="R458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
@@ -24797,6 +26173,9 @@
       <c r="Q459" t="n">
         <v>0</v>
       </c>
+      <c r="R459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
@@ -24850,6 +26229,9 @@
       <c r="Q460" t="n">
         <v>0</v>
       </c>
+      <c r="R460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
@@ -24903,6 +26285,9 @@
       <c r="Q461" t="n">
         <v>0</v>
       </c>
+      <c r="R461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
@@ -24956,6 +26341,9 @@
       <c r="Q462" t="n">
         <v>0</v>
       </c>
+      <c r="R462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
@@ -25009,6 +26397,9 @@
       <c r="Q463" t="n">
         <v>0</v>
       </c>
+      <c r="R463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
@@ -25062,6 +26453,9 @@
       <c r="Q464" t="n">
         <v>0</v>
       </c>
+      <c r="R464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
@@ -25115,6 +26509,9 @@
       <c r="Q465" t="n">
         <v>0</v>
       </c>
+      <c r="R465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
@@ -25168,6 +26565,9 @@
       <c r="Q466" t="n">
         <v>0</v>
       </c>
+      <c r="R466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
@@ -25221,6 +26621,9 @@
       <c r="Q467" t="n">
         <v>0</v>
       </c>
+      <c r="R467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
@@ -25274,6 +26677,9 @@
       <c r="Q468" t="n">
         <v>0</v>
       </c>
+      <c r="R468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
@@ -25327,6 +26733,9 @@
       <c r="Q469" t="n">
         <v>0</v>
       </c>
+      <c r="R469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
@@ -25380,6 +26789,9 @@
       <c r="Q470" t="n">
         <v>0</v>
       </c>
+      <c r="R470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
@@ -25433,6 +26845,9 @@
       <c r="Q471" t="n">
         <v>0</v>
       </c>
+      <c r="R471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
@@ -25486,6 +26901,9 @@
       <c r="Q472" t="n">
         <v>1</v>
       </c>
+      <c r="R472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
@@ -25539,6 +26957,9 @@
       <c r="Q473" t="n">
         <v>0</v>
       </c>
+      <c r="R473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
@@ -25592,6 +27013,9 @@
       <c r="Q474" t="n">
         <v>0</v>
       </c>
+      <c r="R474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
@@ -25645,6 +27069,9 @@
       <c r="Q475" t="n">
         <v>2</v>
       </c>
+      <c r="R475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
@@ -25698,6 +27125,9 @@
       <c r="Q476" t="n">
         <v>0</v>
       </c>
+      <c r="R476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
@@ -25751,6 +27181,9 @@
       <c r="Q477" t="n">
         <v>0</v>
       </c>
+      <c r="R477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
@@ -25804,6 +27237,9 @@
       <c r="Q478" t="n">
         <v>0</v>
       </c>
+      <c r="R478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
@@ -25857,6 +27293,9 @@
       <c r="Q479" t="n">
         <v>0</v>
       </c>
+      <c r="R479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
@@ -25910,6 +27349,9 @@
       <c r="Q480" t="n">
         <v>0</v>
       </c>
+      <c r="R480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
@@ -25963,6 +27405,9 @@
       <c r="Q481" t="n">
         <v>0</v>
       </c>
+      <c r="R481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
@@ -26016,6 +27461,9 @@
       <c r="Q482" t="n">
         <v>0</v>
       </c>
+      <c r="R482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
@@ -26069,6 +27517,9 @@
       <c r="Q483" t="n">
         <v>0</v>
       </c>
+      <c r="R483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
@@ -26122,6 +27573,9 @@
       <c r="Q484" t="n">
         <v>0</v>
       </c>
+      <c r="R484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
@@ -26175,6 +27629,9 @@
       <c r="Q485" t="n">
         <v>0</v>
       </c>
+      <c r="R485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
@@ -26228,6 +27685,9 @@
       <c r="Q486" t="n">
         <v>1</v>
       </c>
+      <c r="R486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
@@ -26281,6 +27741,9 @@
       <c r="Q487" t="n">
         <v>0</v>
       </c>
+      <c r="R487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
@@ -26334,6 +27797,9 @@
       <c r="Q488" t="n">
         <v>0</v>
       </c>
+      <c r="R488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
@@ -26387,6 +27853,9 @@
       <c r="Q489" t="n">
         <v>0</v>
       </c>
+      <c r="R489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
@@ -26440,6 +27909,9 @@
       <c r="Q490" t="n">
         <v>0</v>
       </c>
+      <c r="R490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
@@ -26493,6 +27965,9 @@
       <c r="Q491" t="n">
         <v>0</v>
       </c>
+      <c r="R491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
@@ -26546,6 +28021,9 @@
       <c r="Q492" t="n">
         <v>2</v>
       </c>
+      <c r="R492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
@@ -26599,6 +28077,9 @@
       <c r="Q493" t="n">
         <v>0</v>
       </c>
+      <c r="R493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
@@ -26652,6 +28133,9 @@
       <c r="Q494" t="n">
         <v>0</v>
       </c>
+      <c r="R494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
@@ -26705,6 +28189,9 @@
       <c r="Q495" t="n">
         <v>0</v>
       </c>
+      <c r="R495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
@@ -26758,6 +28245,9 @@
       <c r="Q496" t="n">
         <v>0</v>
       </c>
+      <c r="R496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
@@ -26811,6 +28301,9 @@
       <c r="Q497" t="n">
         <v>0</v>
       </c>
+      <c r="R497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
@@ -26864,6 +28357,9 @@
       <c r="Q498" t="n">
         <v>0</v>
       </c>
+      <c r="R498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
@@ -26917,6 +28413,9 @@
       <c r="Q499" t="n">
         <v>0</v>
       </c>
+      <c r="R499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
@@ -26970,6 +28469,9 @@
       <c r="Q500" t="n">
         <v>0</v>
       </c>
+      <c r="R500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
@@ -27023,6 +28525,9 @@
       <c r="Q501" t="n">
         <v>0</v>
       </c>
+      <c r="R501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
@@ -27076,6 +28581,9 @@
       <c r="Q502" t="n">
         <v>1</v>
       </c>
+      <c r="R502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
@@ -27129,6 +28637,9 @@
       <c r="Q503" t="n">
         <v>0</v>
       </c>
+      <c r="R503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
@@ -27182,6 +28693,9 @@
       <c r="Q504" t="n">
         <v>0</v>
       </c>
+      <c r="R504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
@@ -27235,6 +28749,9 @@
       <c r="Q505" t="n">
         <v>2</v>
       </c>
+      <c r="R505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
@@ -27288,6 +28805,9 @@
       <c r="Q506" t="n">
         <v>0</v>
       </c>
+      <c r="R506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
@@ -27341,6 +28861,9 @@
       <c r="Q507" t="n">
         <v>0</v>
       </c>
+      <c r="R507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
@@ -27394,6 +28917,9 @@
       <c r="Q508" t="n">
         <v>0</v>
       </c>
+      <c r="R508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
@@ -27447,6 +28973,9 @@
       <c r="Q509" t="n">
         <v>0</v>
       </c>
+      <c r="R509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
@@ -27500,6 +29029,9 @@
       <c r="Q510" t="n">
         <v>1</v>
       </c>
+      <c r="R510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
@@ -27553,6 +29085,9 @@
       <c r="Q511" t="n">
         <v>0</v>
       </c>
+      <c r="R511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
@@ -27606,6 +29141,9 @@
       <c r="Q512" t="n">
         <v>0</v>
       </c>
+      <c r="R512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
@@ -27659,6 +29197,9 @@
       <c r="Q513" t="n">
         <v>0</v>
       </c>
+      <c r="R513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
@@ -27712,6 +29253,9 @@
       <c r="Q514" t="n">
         <v>2</v>
       </c>
+      <c r="R514" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
@@ -27765,6 +29309,9 @@
       <c r="Q515" t="n">
         <v>0</v>
       </c>
+      <c r="R515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
@@ -27818,6 +29365,9 @@
       <c r="Q516" t="n">
         <v>0</v>
       </c>
+      <c r="R516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
@@ -27871,6 +29421,9 @@
       <c r="Q517" t="n">
         <v>0</v>
       </c>
+      <c r="R517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
@@ -27924,6 +29477,9 @@
       <c r="Q518" t="n">
         <v>0</v>
       </c>
+      <c r="R518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
@@ -27977,6 +29533,9 @@
       <c r="Q519" t="n">
         <v>1</v>
       </c>
+      <c r="R519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
@@ -28030,6 +29589,9 @@
       <c r="Q520" t="n">
         <v>1</v>
       </c>
+      <c r="R520" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
@@ -28083,6 +29645,9 @@
       <c r="Q521" t="n">
         <v>0</v>
       </c>
+      <c r="R521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
@@ -28136,6 +29701,9 @@
       <c r="Q522" t="n">
         <v>0</v>
       </c>
+      <c r="R522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
@@ -28189,6 +29757,9 @@
       <c r="Q523" t="n">
         <v>2</v>
       </c>
+      <c r="R523" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
@@ -28242,6 +29813,9 @@
       <c r="Q524" t="n">
         <v>0</v>
       </c>
+      <c r="R524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
@@ -28295,6 +29869,9 @@
       <c r="Q525" t="n">
         <v>0</v>
       </c>
+      <c r="R525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
@@ -28348,6 +29925,9 @@
       <c r="Q526" t="n">
         <v>0</v>
       </c>
+      <c r="R526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
@@ -28401,6 +29981,9 @@
       <c r="Q527" t="n">
         <v>0</v>
       </c>
+      <c r="R527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
@@ -28454,6 +30037,9 @@
       <c r="Q528" t="n">
         <v>0</v>
       </c>
+      <c r="R528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
@@ -28507,6 +30093,9 @@
       <c r="Q529" t="n">
         <v>0</v>
       </c>
+      <c r="R529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
@@ -28560,6 +30149,9 @@
       <c r="Q530" t="n">
         <v>0</v>
       </c>
+      <c r="R530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
@@ -28613,6 +30205,9 @@
       <c r="Q531" t="n">
         <v>0</v>
       </c>
+      <c r="R531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
@@ -28666,6 +30261,9 @@
       <c r="Q532" t="n">
         <v>0</v>
       </c>
+      <c r="R532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
@@ -28719,6 +30317,9 @@
       <c r="Q533" t="n">
         <v>1</v>
       </c>
+      <c r="R533" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
@@ -28772,6 +30373,9 @@
       <c r="Q534" t="n">
         <v>0</v>
       </c>
+      <c r="R534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
@@ -28825,6 +30429,9 @@
       <c r="Q535" t="n">
         <v>0</v>
       </c>
+      <c r="R535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
@@ -28878,6 +30485,9 @@
       <c r="Q536" t="n">
         <v>0</v>
       </c>
+      <c r="R536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
@@ -28931,6 +30541,9 @@
       <c r="Q537" t="n">
         <v>0</v>
       </c>
+      <c r="R537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
@@ -28984,6 +30597,9 @@
       <c r="Q538" t="n">
         <v>2</v>
       </c>
+      <c r="R538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
@@ -29037,6 +30653,9 @@
       <c r="Q539" t="n">
         <v>0</v>
       </c>
+      <c r="R539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
@@ -29090,6 +30709,9 @@
       <c r="Q540" t="n">
         <v>0</v>
       </c>
+      <c r="R540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
@@ -29143,6 +30765,9 @@
       <c r="Q541" t="n">
         <v>0</v>
       </c>
+      <c r="R541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
@@ -29196,6 +30821,9 @@
       <c r="Q542" t="n">
         <v>0</v>
       </c>
+      <c r="R542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
@@ -29249,6 +30877,9 @@
       <c r="Q543" t="n">
         <v>0</v>
       </c>
+      <c r="R543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
@@ -29302,6 +30933,9 @@
       <c r="Q544" t="n">
         <v>0</v>
       </c>
+      <c r="R544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
@@ -29355,6 +30989,9 @@
       <c r="Q545" t="n">
         <v>0</v>
       </c>
+      <c r="R545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
@@ -29408,6 +31045,9 @@
       <c r="Q546" t="n">
         <v>0</v>
       </c>
+      <c r="R546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
@@ -29461,6 +31101,9 @@
       <c r="Q547" t="n">
         <v>0</v>
       </c>
+      <c r="R547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
@@ -29514,6 +31157,9 @@
       <c r="Q548" t="n">
         <v>2</v>
       </c>
+      <c r="R548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
@@ -29567,6 +31213,9 @@
       <c r="Q549" t="n">
         <v>0</v>
       </c>
+      <c r="R549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
@@ -29620,6 +31269,9 @@
       <c r="Q550" t="n">
         <v>0</v>
       </c>
+      <c r="R550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
@@ -29673,6 +31325,9 @@
       <c r="Q551" t="n">
         <v>0</v>
       </c>
+      <c r="R551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
@@ -29726,6 +31381,9 @@
       <c r="Q552" t="n">
         <v>0</v>
       </c>
+      <c r="R552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
@@ -29779,6 +31437,9 @@
       <c r="Q553" t="n">
         <v>0</v>
       </c>
+      <c r="R553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
@@ -29832,6 +31493,9 @@
       <c r="Q554" t="n">
         <v>0</v>
       </c>
+      <c r="R554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
@@ -29885,6 +31549,9 @@
       <c r="Q555" t="n">
         <v>0</v>
       </c>
+      <c r="R555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
@@ -29938,6 +31605,9 @@
       <c r="Q556" t="n">
         <v>0</v>
       </c>
+      <c r="R556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
@@ -29991,6 +31661,9 @@
       <c r="Q557" t="n">
         <v>0</v>
       </c>
+      <c r="R557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
@@ -30044,6 +31717,9 @@
       <c r="Q558" t="n">
         <v>0</v>
       </c>
+      <c r="R558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
@@ -30097,6 +31773,9 @@
       <c r="Q559" t="n">
         <v>1</v>
       </c>
+      <c r="R559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
@@ -30150,6 +31829,9 @@
       <c r="Q560" t="n">
         <v>0</v>
       </c>
+      <c r="R560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
@@ -30203,6 +31885,9 @@
       <c r="Q561" t="n">
         <v>0</v>
       </c>
+      <c r="R561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
@@ -30256,6 +31941,9 @@
       <c r="Q562" t="n">
         <v>0</v>
       </c>
+      <c r="R562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
@@ -30309,6 +31997,9 @@
       <c r="Q563" t="n">
         <v>0</v>
       </c>
+      <c r="R563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
@@ -30362,6 +32053,9 @@
       <c r="Q564" t="n">
         <v>0</v>
       </c>
+      <c r="R564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
@@ -30415,6 +32109,9 @@
       <c r="Q565" t="n">
         <v>0</v>
       </c>
+      <c r="R565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
@@ -30468,6 +32165,9 @@
       <c r="Q566" t="n">
         <v>0</v>
       </c>
+      <c r="R566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
@@ -30521,6 +32221,9 @@
       <c r="Q567" t="n">
         <v>0</v>
       </c>
+      <c r="R567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
@@ -30574,6 +32277,9 @@
       <c r="Q568" t="n">
         <v>2</v>
       </c>
+      <c r="R568" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
@@ -30627,6 +32333,9 @@
       <c r="Q569" t="n">
         <v>0</v>
       </c>
+      <c r="R569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
@@ -30680,6 +32389,9 @@
       <c r="Q570" t="n">
         <v>0</v>
       </c>
+      <c r="R570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
@@ -30733,6 +32445,9 @@
       <c r="Q571" t="n">
         <v>0</v>
       </c>
+      <c r="R571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
@@ -30786,6 +32501,9 @@
       <c r="Q572" t="n">
         <v>0</v>
       </c>
+      <c r="R572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
@@ -30839,6 +32557,9 @@
       <c r="Q573" t="n">
         <v>1</v>
       </c>
+      <c r="R573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
@@ -30892,6 +32613,9 @@
       <c r="Q574" t="n">
         <v>0</v>
       </c>
+      <c r="R574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
@@ -30945,6 +32669,9 @@
       <c r="Q575" t="n">
         <v>0</v>
       </c>
+      <c r="R575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
@@ -30998,6 +32725,9 @@
       <c r="Q576" t="n">
         <v>0</v>
       </c>
+      <c r="R576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
@@ -31051,6 +32781,9 @@
       <c r="Q577" t="n">
         <v>0</v>
       </c>
+      <c r="R577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
@@ -31104,6 +32837,9 @@
       <c r="Q578" t="n">
         <v>0</v>
       </c>
+      <c r="R578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
@@ -31157,6 +32893,9 @@
       <c r="Q579" t="n">
         <v>1</v>
       </c>
+      <c r="R579" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
@@ -31210,6 +32949,9 @@
       <c r="Q580" t="n">
         <v>0</v>
       </c>
+      <c r="R580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
@@ -31263,6 +33005,9 @@
       <c r="Q581" t="n">
         <v>0</v>
       </c>
+      <c r="R581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
@@ -31316,6 +33061,9 @@
       <c r="Q582" t="n">
         <v>2</v>
       </c>
+      <c r="R582" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
@@ -31369,6 +33117,9 @@
       <c r="Q583" t="n">
         <v>0</v>
       </c>
+      <c r="R583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
@@ -31422,6 +33173,9 @@
       <c r="Q584" t="n">
         <v>0</v>
       </c>
+      <c r="R584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
@@ -31475,6 +33229,9 @@
       <c r="Q585" t="n">
         <v>0</v>
       </c>
+      <c r="R585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
@@ -31528,6 +33285,9 @@
       <c r="Q586" t="n">
         <v>0</v>
       </c>
+      <c r="R586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
@@ -31581,6 +33341,9 @@
       <c r="Q587" t="n">
         <v>0</v>
       </c>
+      <c r="R587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
@@ -31634,6 +33397,9 @@
       <c r="Q588" t="n">
         <v>0</v>
       </c>
+      <c r="R588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
@@ -31687,6 +33453,9 @@
       <c r="Q589" t="n">
         <v>0</v>
       </c>
+      <c r="R589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
@@ -31740,6 +33509,9 @@
       <c r="Q590" t="n">
         <v>0</v>
       </c>
+      <c r="R590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
@@ -31793,6 +33565,9 @@
       <c r="Q591" t="n">
         <v>0</v>
       </c>
+      <c r="R591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
@@ -31846,6 +33621,9 @@
       <c r="Q592" t="n">
         <v>1</v>
       </c>
+      <c r="R592" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
@@ -31899,6 +33677,9 @@
       <c r="Q593" t="n">
         <v>0</v>
       </c>
+      <c r="R593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
@@ -31952,6 +33733,9 @@
       <c r="Q594" t="n">
         <v>2</v>
       </c>
+      <c r="R594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
@@ -32005,6 +33789,9 @@
       <c r="Q595" t="n">
         <v>0</v>
       </c>
+      <c r="R595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
@@ -32058,6 +33845,9 @@
       <c r="Q596" t="n">
         <v>0</v>
       </c>
+      <c r="R596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
@@ -32111,6 +33901,9 @@
       <c r="Q597" t="n">
         <v>0</v>
       </c>
+      <c r="R597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
@@ -32164,6 +33957,9 @@
       <c r="Q598" t="n">
         <v>0</v>
       </c>
+      <c r="R598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
@@ -32217,6 +34013,9 @@
       <c r="Q599" t="n">
         <v>0</v>
       </c>
+      <c r="R599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
@@ -32270,6 +34069,9 @@
       <c r="Q600" t="n">
         <v>0</v>
       </c>
+      <c r="R600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
@@ -32323,6 +34125,9 @@
       <c r="Q601" t="n">
         <v>1</v>
       </c>
+      <c r="R601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
@@ -32376,6 +34181,9 @@
       <c r="Q602" t="n">
         <v>0</v>
       </c>
+      <c r="R602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
@@ -32429,6 +34237,9 @@
       <c r="Q603" t="n">
         <v>0</v>
       </c>
+      <c r="R603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
@@ -32482,6 +34293,9 @@
       <c r="Q604" t="n">
         <v>0</v>
       </c>
+      <c r="R604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
@@ -32535,6 +34349,9 @@
       <c r="Q605" t="n">
         <v>0</v>
       </c>
+      <c r="R605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
@@ -32588,6 +34405,9 @@
       <c r="Q606" t="n">
         <v>0</v>
       </c>
+      <c r="R606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
@@ -32641,6 +34461,9 @@
       <c r="Q607" t="n">
         <v>0</v>
       </c>
+      <c r="R607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
@@ -32694,6 +34517,9 @@
       <c r="Q608" t="n">
         <v>0</v>
       </c>
+      <c r="R608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
@@ -32747,6 +34573,9 @@
       <c r="Q609" t="n">
         <v>0</v>
       </c>
+      <c r="R609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
@@ -32800,6 +34629,9 @@
       <c r="Q610" t="n">
         <v>0</v>
       </c>
+      <c r="R610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
@@ -32853,6 +34685,9 @@
       <c r="Q611" t="n">
         <v>0</v>
       </c>
+      <c r="R611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
@@ -32906,6 +34741,9 @@
       <c r="Q612" t="n">
         <v>0</v>
       </c>
+      <c r="R612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
@@ -32959,6 +34797,9 @@
       <c r="Q613" t="n">
         <v>0</v>
       </c>
+      <c r="R613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
@@ -33012,6 +34853,9 @@
       <c r="Q614" t="n">
         <v>1</v>
       </c>
+      <c r="R614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
@@ -33065,6 +34909,9 @@
       <c r="Q615" t="n">
         <v>0</v>
       </c>
+      <c r="R615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
@@ -33118,6 +34965,9 @@
       <c r="Q616" t="n">
         <v>2</v>
       </c>
+      <c r="R616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
@@ -33171,6 +35021,9 @@
       <c r="Q617" t="n">
         <v>0</v>
       </c>
+      <c r="R617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
@@ -33224,6 +35077,9 @@
       <c r="Q618" t="n">
         <v>0</v>
       </c>
+      <c r="R618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
@@ -33277,6 +35133,9 @@
       <c r="Q619" t="n">
         <v>0</v>
       </c>
+      <c r="R619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
@@ -33330,6 +35189,9 @@
       <c r="Q620" t="n">
         <v>0</v>
       </c>
+      <c r="R620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
@@ -33383,6 +35245,9 @@
       <c r="Q621" t="n">
         <v>0</v>
       </c>
+      <c r="R621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
@@ -33436,6 +35301,9 @@
       <c r="Q622" t="n">
         <v>0</v>
       </c>
+      <c r="R622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
@@ -33489,6 +35357,9 @@
       <c r="Q623" t="n">
         <v>0</v>
       </c>
+      <c r="R623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
@@ -33542,6 +35413,9 @@
       <c r="Q624" t="n">
         <v>0</v>
       </c>
+      <c r="R624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
@@ -33595,6 +35469,9 @@
       <c r="Q625" t="n">
         <v>0</v>
       </c>
+      <c r="R625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
@@ -33648,6 +35525,9 @@
       <c r="Q626" t="n">
         <v>0</v>
       </c>
+      <c r="R626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
@@ -33701,6 +35581,9 @@
       <c r="Q627" t="n">
         <v>0</v>
       </c>
+      <c r="R627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
@@ -33754,6 +35637,9 @@
       <c r="Q628" t="n">
         <v>0</v>
       </c>
+      <c r="R628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
@@ -33807,6 +35693,9 @@
       <c r="Q629" t="n">
         <v>2</v>
       </c>
+      <c r="R629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
@@ -33860,6 +35749,9 @@
       <c r="Q630" t="n">
         <v>0</v>
       </c>
+      <c r="R630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
@@ -33913,6 +35805,9 @@
       <c r="Q631" t="n">
         <v>0</v>
       </c>
+      <c r="R631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
@@ -33966,6 +35861,9 @@
       <c r="Q632" t="n">
         <v>1</v>
       </c>
+      <c r="R632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
@@ -34019,6 +35917,9 @@
       <c r="Q633" t="n">
         <v>0</v>
       </c>
+      <c r="R633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
@@ -34072,6 +35973,9 @@
       <c r="Q634" t="n">
         <v>0</v>
       </c>
+      <c r="R634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
@@ -34125,6 +36029,9 @@
       <c r="Q635" t="n">
         <v>0</v>
       </c>
+      <c r="R635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
@@ -34178,6 +36085,9 @@
       <c r="Q636" t="n">
         <v>0</v>
       </c>
+      <c r="R636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
@@ -34231,6 +36141,9 @@
       <c r="Q637" t="n">
         <v>0</v>
       </c>
+      <c r="R637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
@@ -34284,6 +36197,9 @@
       <c r="Q638" t="n">
         <v>0</v>
       </c>
+      <c r="R638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
@@ -34337,6 +36253,9 @@
       <c r="Q639" t="n">
         <v>1</v>
       </c>
+      <c r="R639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
@@ -34390,6 +36309,9 @@
       <c r="Q640" t="n">
         <v>0</v>
       </c>
+      <c r="R640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
@@ -34443,6 +36365,9 @@
       <c r="Q641" t="n">
         <v>0</v>
       </c>
+      <c r="R641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
@@ -34496,6 +36421,9 @@
       <c r="Q642" t="n">
         <v>0</v>
       </c>
+      <c r="R642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
@@ -34549,6 +36477,9 @@
       <c r="Q643" t="n">
         <v>0</v>
       </c>
+      <c r="R643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
@@ -34602,6 +36533,9 @@
       <c r="Q644" t="n">
         <v>0</v>
       </c>
+      <c r="R644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
@@ -34655,6 +36589,9 @@
       <c r="Q645" t="n">
         <v>0</v>
       </c>
+      <c r="R645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
@@ -34708,6 +36645,9 @@
       <c r="Q646" t="n">
         <v>0</v>
       </c>
+      <c r="R646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
@@ -34761,6 +36701,9 @@
       <c r="Q647" t="n">
         <v>2</v>
       </c>
+      <c r="R647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
@@ -34814,6 +36757,9 @@
       <c r="Q648" t="n">
         <v>0</v>
       </c>
+      <c r="R648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
@@ -34867,6 +36813,9 @@
       <c r="Q649" t="n">
         <v>0</v>
       </c>
+      <c r="R649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
@@ -34920,6 +36869,9 @@
       <c r="Q650" t="n">
         <v>0</v>
       </c>
+      <c r="R650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
@@ -34973,6 +36925,9 @@
       <c r="Q651" t="n">
         <v>0</v>
       </c>
+      <c r="R651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
@@ -35026,6 +36981,9 @@
       <c r="Q652" t="n">
         <v>1</v>
       </c>
+      <c r="R652" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
@@ -35079,6 +37037,9 @@
       <c r="Q653" t="n">
         <v>0</v>
       </c>
+      <c r="R653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
@@ -35132,6 +37093,9 @@
       <c r="Q654" t="n">
         <v>0</v>
       </c>
+      <c r="R654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
@@ -35185,6 +37149,9 @@
       <c r="Q655" t="n">
         <v>0</v>
       </c>
+      <c r="R655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
@@ -35238,6 +37205,9 @@
       <c r="Q656" t="n">
         <v>0</v>
       </c>
+      <c r="R656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
@@ -35291,6 +37261,9 @@
       <c r="Q657" t="n">
         <v>0</v>
       </c>
+      <c r="R657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
@@ -35344,6 +37317,9 @@
       <c r="Q658" t="n">
         <v>1</v>
       </c>
+      <c r="R658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
@@ -35397,6 +37373,9 @@
       <c r="Q659" t="n">
         <v>0</v>
       </c>
+      <c r="R659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
@@ -35450,6 +37429,9 @@
       <c r="Q660" t="n">
         <v>0</v>
       </c>
+      <c r="R660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
@@ -35503,6 +37485,9 @@
       <c r="Q661" t="n">
         <v>0</v>
       </c>
+      <c r="R661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
@@ -35556,6 +37541,9 @@
       <c r="Q662" t="n">
         <v>2</v>
       </c>
+      <c r="R662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
@@ -35609,6 +37597,9 @@
       <c r="Q663" t="n">
         <v>0</v>
       </c>
+      <c r="R663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
@@ -35662,6 +37653,9 @@
       <c r="Q664" t="n">
         <v>0</v>
       </c>
+      <c r="R664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
@@ -35715,6 +37709,9 @@
       <c r="Q665" t="n">
         <v>0</v>
       </c>
+      <c r="R665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
@@ -35768,6 +37765,9 @@
       <c r="Q666" t="n">
         <v>0</v>
       </c>
+      <c r="R666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
@@ -35821,6 +37821,9 @@
       <c r="Q667" t="n">
         <v>1</v>
       </c>
+      <c r="R667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
@@ -35874,6 +37877,9 @@
       <c r="Q668" t="n">
         <v>0</v>
       </c>
+      <c r="R668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
@@ -35927,6 +37933,9 @@
       <c r="Q669" t="n">
         <v>0</v>
       </c>
+      <c r="R669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
@@ -35980,6 +37989,9 @@
       <c r="Q670" t="n">
         <v>0</v>
       </c>
+      <c r="R670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
@@ -36033,6 +38045,9 @@
       <c r="Q671" t="n">
         <v>0</v>
       </c>
+      <c r="R671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
@@ -36086,6 +38101,9 @@
       <c r="Q672" t="n">
         <v>0</v>
       </c>
+      <c r="R672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
@@ -36139,6 +38157,9 @@
       <c r="Q673" t="n">
         <v>0</v>
       </c>
+      <c r="R673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
@@ -36192,6 +38213,9 @@
       <c r="Q674" t="n">
         <v>0</v>
       </c>
+      <c r="R674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
@@ -36245,6 +38269,9 @@
       <c r="Q675" t="n">
         <v>0</v>
       </c>
+      <c r="R675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
@@ -36298,6 +38325,9 @@
       <c r="Q676" t="n">
         <v>0</v>
       </c>
+      <c r="R676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
@@ -36351,6 +38381,9 @@
       <c r="Q677" t="n">
         <v>0</v>
       </c>
+      <c r="R677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
@@ -36404,6 +38437,9 @@
       <c r="Q678" t="n">
         <v>0</v>
       </c>
+      <c r="R678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
@@ -36457,6 +38493,9 @@
       <c r="Q679" t="n">
         <v>0</v>
       </c>
+      <c r="R679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
@@ -36510,6 +38549,9 @@
       <c r="Q680" t="n">
         <v>0</v>
       </c>
+      <c r="R680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
@@ -36563,6 +38605,9 @@
       <c r="Q681" t="n">
         <v>0</v>
       </c>
+      <c r="R681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
@@ -36616,6 +38661,9 @@
       <c r="Q682" t="n">
         <v>0</v>
       </c>
+      <c r="R682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
@@ -36669,6 +38717,9 @@
       <c r="Q683" t="n">
         <v>0</v>
       </c>
+      <c r="R683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
@@ -36722,6 +38773,9 @@
       <c r="Q684" t="n">
         <v>0</v>
       </c>
+      <c r="R684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
@@ -36775,6 +38829,9 @@
       <c r="Q685" t="n">
         <v>0</v>
       </c>
+      <c r="R685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
@@ -36828,6 +38885,9 @@
       <c r="Q686" t="n">
         <v>0</v>
       </c>
+      <c r="R686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
@@ -36881,6 +38941,9 @@
       <c r="Q687" t="n">
         <v>0</v>
       </c>
+      <c r="R687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
@@ -36934,6 +38997,9 @@
       <c r="Q688" t="n">
         <v>0</v>
       </c>
+      <c r="R688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
@@ -36987,6 +39053,9 @@
       <c r="Q689" t="n">
         <v>0</v>
       </c>
+      <c r="R689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
@@ -37040,6 +39109,9 @@
       <c r="Q690" t="n">
         <v>0</v>
       </c>
+      <c r="R690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
@@ -37093,6 +39165,9 @@
       <c r="Q691" t="n">
         <v>0</v>
       </c>
+      <c r="R691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
@@ -37146,6 +39221,9 @@
       <c r="Q692" t="n">
         <v>0</v>
       </c>
+      <c r="R692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
@@ -37199,6 +39277,9 @@
       <c r="Q693" t="n">
         <v>0</v>
       </c>
+      <c r="R693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
@@ -37252,6 +39333,9 @@
       <c r="Q694" t="n">
         <v>0</v>
       </c>
+      <c r="R694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
@@ -37305,6 +39389,9 @@
       <c r="Q695" t="n">
         <v>0</v>
       </c>
+      <c r="R695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
@@ -37358,6 +39445,9 @@
       <c r="Q696" t="n">
         <v>1</v>
       </c>
+      <c r="R696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
@@ -37411,6 +39501,9 @@
       <c r="Q697" t="n">
         <v>0</v>
       </c>
+      <c r="R697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
@@ -37464,6 +39557,9 @@
       <c r="Q698" t="n">
         <v>0</v>
       </c>
+      <c r="R698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
@@ -37517,6 +39613,9 @@
       <c r="Q699" t="n">
         <v>0</v>
       </c>
+      <c r="R699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
@@ -37570,6 +39669,9 @@
       <c r="Q700" t="n">
         <v>0</v>
       </c>
+      <c r="R700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
@@ -37623,6 +39725,9 @@
       <c r="Q701" t="n">
         <v>0</v>
       </c>
+      <c r="R701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
@@ -37676,6 +39781,9 @@
       <c r="Q702" t="n">
         <v>0</v>
       </c>
+      <c r="R702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
@@ -37729,6 +39837,9 @@
       <c r="Q703" t="n">
         <v>2</v>
       </c>
+      <c r="R703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
@@ -37782,6 +39893,9 @@
       <c r="Q704" t="n">
         <v>0</v>
       </c>
+      <c r="R704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
@@ -37835,6 +39949,9 @@
       <c r="Q705" t="n">
         <v>0</v>
       </c>
+      <c r="R705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
@@ -37888,6 +40005,9 @@
       <c r="Q706" t="n">
         <v>0</v>
       </c>
+      <c r="R706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
@@ -37941,6 +40061,9 @@
       <c r="Q707" t="n">
         <v>0</v>
       </c>
+      <c r="R707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
@@ -37994,6 +40117,9 @@
       <c r="Q708" t="n">
         <v>1</v>
       </c>
+      <c r="R708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
@@ -38047,6 +40173,9 @@
       <c r="Q709" t="n">
         <v>0</v>
       </c>
+      <c r="R709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
@@ -38100,6 +40229,9 @@
       <c r="Q710" t="n">
         <v>0</v>
       </c>
+      <c r="R710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
@@ -38153,6 +40285,9 @@
       <c r="Q711" t="n">
         <v>0</v>
       </c>
+      <c r="R711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
@@ -38206,6 +40341,9 @@
       <c r="Q712" t="n">
         <v>0</v>
       </c>
+      <c r="R712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
@@ -38259,6 +40397,9 @@
       <c r="Q713" t="n">
         <v>0</v>
       </c>
+      <c r="R713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
@@ -38312,6 +40453,9 @@
       <c r="Q714" t="n">
         <v>0</v>
       </c>
+      <c r="R714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
@@ -38365,6 +40509,117 @@
       <c r="Q715" t="n">
         <v>0</v>
       </c>
+      <c r="R715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B716" t="n">
+        <v>223.75</v>
+      </c>
+      <c r="C716" t="n">
+        <v>246.6600036621094</v>
+      </c>
+      <c r="D716" t="n">
+        <v>217.5099945068359</v>
+      </c>
+      <c r="E716" t="n">
+        <v>236.8500061035156</v>
+      </c>
+      <c r="F716" t="n">
+        <v>236.8500061035156</v>
+      </c>
+      <c r="G716" t="n">
+        <v>21789843</v>
+      </c>
+      <c r="H716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I716" t="n">
+        <v>6</v>
+      </c>
+      <c r="J716" t="n">
+        <v>17</v>
+      </c>
+      <c r="K716" t="n">
+        <v>0</v>
+      </c>
+      <c r="L716" t="n">
+        <v>0</v>
+      </c>
+      <c r="M716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N716" t="n">
+        <v>25</v>
+      </c>
+      <c r="O716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B717" t="n">
+        <v>236.8000030517578</v>
+      </c>
+      <c r="C717" t="n">
+        <v>249</v>
+      </c>
+      <c r="D717" t="n">
+        <v>222.1499938964844</v>
+      </c>
+      <c r="E717" t="n">
+        <v>224.5599975585938</v>
+      </c>
+      <c r="F717" t="n">
+        <v>224.5599975585938</v>
+      </c>
+      <c r="G717" t="n">
+        <v>13788073</v>
+      </c>
+      <c r="H717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I717" t="n">
+        <v>6</v>
+      </c>
+      <c r="J717" t="n">
+        <v>24</v>
+      </c>
+      <c r="K717" t="n">
+        <v>0</v>
+      </c>
+      <c r="L717" t="n">
+        <v>0</v>
+      </c>
+      <c r="M717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N717" t="n">
+        <v>26</v>
+      </c>
+      <c r="O717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R717" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/ASHOKA.NS.xlsx
+++ b/stock_historical_data/1wk/ASHOKA.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R717"/>
+  <dimension ref="A1:R752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="Q82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R82" t="n">
         <v>0</v>
@@ -40565,7 +40565,9 @@
       <c r="Q716" t="n">
         <v>0</v>
       </c>
-      <c r="R716" t="inlineStr"/>
+      <c r="R716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
@@ -40619,7 +40621,1829 @@
       <c r="Q717" t="n">
         <v>0</v>
       </c>
-      <c r="R717" t="inlineStr"/>
+      <c r="R717" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B718" t="n">
+        <v>224.5599975585938</v>
+      </c>
+      <c r="C718" t="n">
+        <v>236.7899932861328</v>
+      </c>
+      <c r="D718" t="n">
+        <v>224.5599975585938</v>
+      </c>
+      <c r="E718" t="n">
+        <v>231.6199951171875</v>
+      </c>
+      <c r="F718" t="inlineStr"/>
+      <c r="G718" t="n">
+        <v>7268297</v>
+      </c>
+      <c r="H718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I718" t="n">
+        <v>7</v>
+      </c>
+      <c r="J718" t="n">
+        <v>1</v>
+      </c>
+      <c r="K718" t="n">
+        <v>0</v>
+      </c>
+      <c r="L718" t="n">
+        <v>0</v>
+      </c>
+      <c r="M718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N718" t="n">
+        <v>27</v>
+      </c>
+      <c r="O718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B719" t="n">
+        <v>232</v>
+      </c>
+      <c r="C719" t="n">
+        <v>243.3500061035156</v>
+      </c>
+      <c r="D719" t="n">
+        <v>227.3099975585938</v>
+      </c>
+      <c r="E719" t="n">
+        <v>235.7299957275391</v>
+      </c>
+      <c r="F719" t="inlineStr"/>
+      <c r="G719" t="n">
+        <v>9116137</v>
+      </c>
+      <c r="H719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I719" t="n">
+        <v>7</v>
+      </c>
+      <c r="J719" t="n">
+        <v>8</v>
+      </c>
+      <c r="K719" t="n">
+        <v>0</v>
+      </c>
+      <c r="L719" t="n">
+        <v>0</v>
+      </c>
+      <c r="M719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N719" t="n">
+        <v>28</v>
+      </c>
+      <c r="O719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B720" t="n">
+        <v>237.1499938964844</v>
+      </c>
+      <c r="C720" t="n">
+        <v>239.75</v>
+      </c>
+      <c r="D720" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="E720" t="n">
+        <v>220.8099975585938</v>
+      </c>
+      <c r="F720" t="inlineStr"/>
+      <c r="G720" t="n">
+        <v>4284670</v>
+      </c>
+      <c r="H720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I720" t="n">
+        <v>7</v>
+      </c>
+      <c r="J720" t="n">
+        <v>15</v>
+      </c>
+      <c r="K720" t="n">
+        <v>0</v>
+      </c>
+      <c r="L720" t="n">
+        <v>0</v>
+      </c>
+      <c r="M720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N720" t="n">
+        <v>29</v>
+      </c>
+      <c r="O720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B721" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="C721" t="n">
+        <v>271.8999938964844</v>
+      </c>
+      <c r="D721" t="n">
+        <v>209.0299987792969</v>
+      </c>
+      <c r="E721" t="n">
+        <v>263.7699890136719</v>
+      </c>
+      <c r="F721" t="inlineStr"/>
+      <c r="G721" t="n">
+        <v>19529923</v>
+      </c>
+      <c r="H721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I721" t="n">
+        <v>7</v>
+      </c>
+      <c r="J721" t="n">
+        <v>22</v>
+      </c>
+      <c r="K721" t="n">
+        <v>0</v>
+      </c>
+      <c r="L721" t="n">
+        <v>0</v>
+      </c>
+      <c r="M721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N721" t="n">
+        <v>30</v>
+      </c>
+      <c r="O721" t="n">
+        <v>3</v>
+      </c>
+      <c r="P721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B722" t="n">
+        <v>264</v>
+      </c>
+      <c r="C722" t="n">
+        <v>267.7000122070312</v>
+      </c>
+      <c r="D722" t="n">
+        <v>247.5500030517578</v>
+      </c>
+      <c r="E722" t="n">
+        <v>252.6000061035156</v>
+      </c>
+      <c r="F722" t="inlineStr"/>
+      <c r="G722" t="n">
+        <v>6126806</v>
+      </c>
+      <c r="H722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I722" t="n">
+        <v>7</v>
+      </c>
+      <c r="J722" t="n">
+        <v>29</v>
+      </c>
+      <c r="K722" t="n">
+        <v>0</v>
+      </c>
+      <c r="L722" t="n">
+        <v>0</v>
+      </c>
+      <c r="M722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N722" t="n">
+        <v>31</v>
+      </c>
+      <c r="O722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B723" t="n">
+        <v>245</v>
+      </c>
+      <c r="C723" t="n">
+        <v>259.8500061035156</v>
+      </c>
+      <c r="D723" t="n">
+        <v>229.1000061035156</v>
+      </c>
+      <c r="E723" t="n">
+        <v>239.4499969482422</v>
+      </c>
+      <c r="F723" t="inlineStr"/>
+      <c r="G723" t="n">
+        <v>8268867</v>
+      </c>
+      <c r="H723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I723" t="n">
+        <v>8</v>
+      </c>
+      <c r="J723" t="n">
+        <v>5</v>
+      </c>
+      <c r="K723" t="n">
+        <v>0</v>
+      </c>
+      <c r="L723" t="n">
+        <v>0</v>
+      </c>
+      <c r="M723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N723" t="n">
+        <v>32</v>
+      </c>
+      <c r="O723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B724" t="n">
+        <v>235</v>
+      </c>
+      <c r="C724" t="n">
+        <v>248.25</v>
+      </c>
+      <c r="D724" t="n">
+        <v>228.1499938964844</v>
+      </c>
+      <c r="E724" t="n">
+        <v>234.0500030517578</v>
+      </c>
+      <c r="F724" t="inlineStr"/>
+      <c r="G724" t="n">
+        <v>6125834</v>
+      </c>
+      <c r="H724" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I724" t="n">
+        <v>8</v>
+      </c>
+      <c r="J724" t="n">
+        <v>12</v>
+      </c>
+      <c r="K724" t="n">
+        <v>0</v>
+      </c>
+      <c r="L724" t="n">
+        <v>0</v>
+      </c>
+      <c r="M724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N724" t="n">
+        <v>33</v>
+      </c>
+      <c r="O724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B725" t="n">
+        <v>234.9499969482422</v>
+      </c>
+      <c r="C725" t="n">
+        <v>239.8999938964844</v>
+      </c>
+      <c r="D725" t="n">
+        <v>232</v>
+      </c>
+      <c r="E725" t="n">
+        <v>232.75</v>
+      </c>
+      <c r="F725" t="inlineStr"/>
+      <c r="G725" t="n">
+        <v>4270952</v>
+      </c>
+      <c r="H725" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I725" t="n">
+        <v>8</v>
+      </c>
+      <c r="J725" t="n">
+        <v>19</v>
+      </c>
+      <c r="K725" t="n">
+        <v>0</v>
+      </c>
+      <c r="L725" t="n">
+        <v>0</v>
+      </c>
+      <c r="M725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N725" t="n">
+        <v>34</v>
+      </c>
+      <c r="O725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B726" t="n">
+        <v>244.8000030517578</v>
+      </c>
+      <c r="C726" t="n">
+        <v>245</v>
+      </c>
+      <c r="D726" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="E726" t="n">
+        <v>233.5</v>
+      </c>
+      <c r="F726" t="inlineStr"/>
+      <c r="G726" t="n">
+        <v>6587712</v>
+      </c>
+      <c r="H726" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I726" t="n">
+        <v>8</v>
+      </c>
+      <c r="J726" t="n">
+        <v>26</v>
+      </c>
+      <c r="K726" t="n">
+        <v>0</v>
+      </c>
+      <c r="L726" t="n">
+        <v>0</v>
+      </c>
+      <c r="M726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N726" t="n">
+        <v>35</v>
+      </c>
+      <c r="O726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B727" t="n">
+        <v>234.1000061035156</v>
+      </c>
+      <c r="C727" t="n">
+        <v>284.739990234375</v>
+      </c>
+      <c r="D727" t="n">
+        <v>227.3999938964844</v>
+      </c>
+      <c r="E727" t="n">
+        <v>271.1199951171875</v>
+      </c>
+      <c r="F727" t="inlineStr"/>
+      <c r="G727" t="n">
+        <v>31432348</v>
+      </c>
+      <c r="H727" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I727" t="n">
+        <v>9</v>
+      </c>
+      <c r="J727" t="n">
+        <v>2</v>
+      </c>
+      <c r="K727" t="n">
+        <v>0</v>
+      </c>
+      <c r="L727" t="n">
+        <v>0</v>
+      </c>
+      <c r="M727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N727" t="n">
+        <v>36</v>
+      </c>
+      <c r="O727" t="n">
+        <v>1</v>
+      </c>
+      <c r="P727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B728" t="n">
+        <v>270</v>
+      </c>
+      <c r="C728" t="n">
+        <v>270.3900146484375</v>
+      </c>
+      <c r="D728" t="n">
+        <v>245</v>
+      </c>
+      <c r="E728" t="n">
+        <v>254</v>
+      </c>
+      <c r="F728" t="inlineStr"/>
+      <c r="G728" t="n">
+        <v>11471797</v>
+      </c>
+      <c r="H728" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I728" t="n">
+        <v>9</v>
+      </c>
+      <c r="J728" t="n">
+        <v>9</v>
+      </c>
+      <c r="K728" t="n">
+        <v>0</v>
+      </c>
+      <c r="L728" t="n">
+        <v>0</v>
+      </c>
+      <c r="M728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N728" t="n">
+        <v>37</v>
+      </c>
+      <c r="O728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B729" t="n">
+        <v>254.3500061035156</v>
+      </c>
+      <c r="C729" t="n">
+        <v>256.1900024414062</v>
+      </c>
+      <c r="D729" t="n">
+        <v>234.1100006103516</v>
+      </c>
+      <c r="E729" t="n">
+        <v>235.6600036621094</v>
+      </c>
+      <c r="F729" t="inlineStr"/>
+      <c r="G729" t="n">
+        <v>4696118</v>
+      </c>
+      <c r="H729" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I729" t="n">
+        <v>9</v>
+      </c>
+      <c r="J729" t="n">
+        <v>16</v>
+      </c>
+      <c r="K729" t="n">
+        <v>0</v>
+      </c>
+      <c r="L729" t="n">
+        <v>0</v>
+      </c>
+      <c r="M729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N729" t="n">
+        <v>38</v>
+      </c>
+      <c r="O729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B730" t="n">
+        <v>236.75</v>
+      </c>
+      <c r="C730" t="n">
+        <v>252.6999969482422</v>
+      </c>
+      <c r="D730" t="n">
+        <v>231.0500030517578</v>
+      </c>
+      <c r="E730" t="n">
+        <v>231.9100036621094</v>
+      </c>
+      <c r="F730" t="inlineStr"/>
+      <c r="G730" t="n">
+        <v>6644334</v>
+      </c>
+      <c r="H730" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I730" t="n">
+        <v>9</v>
+      </c>
+      <c r="J730" t="n">
+        <v>23</v>
+      </c>
+      <c r="K730" t="n">
+        <v>0</v>
+      </c>
+      <c r="L730" t="n">
+        <v>0</v>
+      </c>
+      <c r="M730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N730" t="n">
+        <v>39</v>
+      </c>
+      <c r="O730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B731" t="n">
+        <v>231</v>
+      </c>
+      <c r="C731" t="n">
+        <v>251.5</v>
+      </c>
+      <c r="D731" t="n">
+        <v>226.0500030517578</v>
+      </c>
+      <c r="E731" t="n">
+        <v>243.5299987792969</v>
+      </c>
+      <c r="F731" t="inlineStr"/>
+      <c r="G731" t="n">
+        <v>11326446</v>
+      </c>
+      <c r="H731" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I731" t="n">
+        <v>9</v>
+      </c>
+      <c r="J731" t="n">
+        <v>30</v>
+      </c>
+      <c r="K731" t="n">
+        <v>0</v>
+      </c>
+      <c r="L731" t="n">
+        <v>0</v>
+      </c>
+      <c r="M731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N731" t="n">
+        <v>40</v>
+      </c>
+      <c r="O731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B732" t="n">
+        <v>246</v>
+      </c>
+      <c r="C732" t="n">
+        <v>253.8899993896484</v>
+      </c>
+      <c r="D732" t="n">
+        <v>228.0500030517578</v>
+      </c>
+      <c r="E732" t="n">
+        <v>251.6399993896484</v>
+      </c>
+      <c r="F732" t="inlineStr"/>
+      <c r="G732" t="n">
+        <v>11572329</v>
+      </c>
+      <c r="H732" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I732" t="n">
+        <v>10</v>
+      </c>
+      <c r="J732" t="n">
+        <v>7</v>
+      </c>
+      <c r="K732" t="n">
+        <v>0</v>
+      </c>
+      <c r="L732" t="n">
+        <v>0</v>
+      </c>
+      <c r="M732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N732" t="n">
+        <v>41</v>
+      </c>
+      <c r="O732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B733" t="n">
+        <v>267</v>
+      </c>
+      <c r="C733" t="n">
+        <v>272.25</v>
+      </c>
+      <c r="D733" t="n">
+        <v>241.6000061035156</v>
+      </c>
+      <c r="E733" t="n">
+        <v>247.0599975585938</v>
+      </c>
+      <c r="F733" t="inlineStr"/>
+      <c r="G733" t="n">
+        <v>20458283</v>
+      </c>
+      <c r="H733" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I733" t="n">
+        <v>10</v>
+      </c>
+      <c r="J733" t="n">
+        <v>14</v>
+      </c>
+      <c r="K733" t="n">
+        <v>0</v>
+      </c>
+      <c r="L733" t="n">
+        <v>0</v>
+      </c>
+      <c r="M733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N733" t="n">
+        <v>42</v>
+      </c>
+      <c r="O733" t="n">
+        <v>1</v>
+      </c>
+      <c r="P733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q733" t="n">
+        <v>2</v>
+      </c>
+      <c r="R733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B734" t="n">
+        <v>249.1100006103516</v>
+      </c>
+      <c r="C734" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="D734" t="n">
+        <v>211.0099945068359</v>
+      </c>
+      <c r="E734" t="n">
+        <v>215.7899932861328</v>
+      </c>
+      <c r="F734" t="inlineStr"/>
+      <c r="G734" t="n">
+        <v>5978117</v>
+      </c>
+      <c r="H734" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I734" t="n">
+        <v>10</v>
+      </c>
+      <c r="J734" t="n">
+        <v>21</v>
+      </c>
+      <c r="K734" t="n">
+        <v>0</v>
+      </c>
+      <c r="L734" t="n">
+        <v>0</v>
+      </c>
+      <c r="M734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N734" t="n">
+        <v>43</v>
+      </c>
+      <c r="O734" t="n">
+        <v>2</v>
+      </c>
+      <c r="P734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B735" t="n">
+        <v>219</v>
+      </c>
+      <c r="C735" t="n">
+        <v>249</v>
+      </c>
+      <c r="D735" t="n">
+        <v>212.4100036621094</v>
+      </c>
+      <c r="E735" t="n">
+        <v>245.5800018310547</v>
+      </c>
+      <c r="F735" t="inlineStr"/>
+      <c r="G735" t="n">
+        <v>7577265</v>
+      </c>
+      <c r="H735" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I735" t="n">
+        <v>10</v>
+      </c>
+      <c r="J735" t="n">
+        <v>28</v>
+      </c>
+      <c r="K735" t="n">
+        <v>0</v>
+      </c>
+      <c r="L735" t="n">
+        <v>0</v>
+      </c>
+      <c r="M735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N735" t="n">
+        <v>44</v>
+      </c>
+      <c r="O735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B736" t="n">
+        <v>247</v>
+      </c>
+      <c r="C736" t="n">
+        <v>247</v>
+      </c>
+      <c r="D736" t="n">
+        <v>234.3800048828125</v>
+      </c>
+      <c r="E736" t="n">
+        <v>235.7700042724609</v>
+      </c>
+      <c r="F736" t="inlineStr"/>
+      <c r="G736" t="n">
+        <v>6036750</v>
+      </c>
+      <c r="H736" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I736" t="n">
+        <v>11</v>
+      </c>
+      <c r="J736" t="n">
+        <v>4</v>
+      </c>
+      <c r="K736" t="n">
+        <v>0</v>
+      </c>
+      <c r="L736" t="n">
+        <v>0</v>
+      </c>
+      <c r="M736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N736" t="n">
+        <v>45</v>
+      </c>
+      <c r="O736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B737" t="n">
+        <v>235.75</v>
+      </c>
+      <c r="C737" t="n">
+        <v>244</v>
+      </c>
+      <c r="D737" t="n">
+        <v>223.0500030517578</v>
+      </c>
+      <c r="E737" t="n">
+        <v>229.7299957275391</v>
+      </c>
+      <c r="F737" t="inlineStr"/>
+      <c r="G737" t="n">
+        <v>12009996</v>
+      </c>
+      <c r="H737" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I737" t="n">
+        <v>11</v>
+      </c>
+      <c r="J737" t="n">
+        <v>11</v>
+      </c>
+      <c r="K737" t="n">
+        <v>0</v>
+      </c>
+      <c r="L737" t="n">
+        <v>0</v>
+      </c>
+      <c r="M737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N737" t="n">
+        <v>46</v>
+      </c>
+      <c r="O737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B738" t="n">
+        <v>230.0800018310547</v>
+      </c>
+      <c r="C738" t="n">
+        <v>245</v>
+      </c>
+      <c r="D738" t="n">
+        <v>223.5200042724609</v>
+      </c>
+      <c r="E738" t="n">
+        <v>231.3099975585938</v>
+      </c>
+      <c r="F738" t="inlineStr"/>
+      <c r="G738" t="n">
+        <v>7608615</v>
+      </c>
+      <c r="H738" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I738" t="n">
+        <v>11</v>
+      </c>
+      <c r="J738" t="n">
+        <v>18</v>
+      </c>
+      <c r="K738" t="n">
+        <v>0</v>
+      </c>
+      <c r="L738" t="n">
+        <v>0</v>
+      </c>
+      <c r="M738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N738" t="n">
+        <v>47</v>
+      </c>
+      <c r="O738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B739" t="n">
+        <v>237</v>
+      </c>
+      <c r="C739" t="n">
+        <v>250.8999938964844</v>
+      </c>
+      <c r="D739" t="n">
+        <v>232.5</v>
+      </c>
+      <c r="E739" t="n">
+        <v>249.4700012207031</v>
+      </c>
+      <c r="F739" t="inlineStr"/>
+      <c r="G739" t="n">
+        <v>16370333</v>
+      </c>
+      <c r="H739" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I739" t="n">
+        <v>11</v>
+      </c>
+      <c r="J739" t="n">
+        <v>25</v>
+      </c>
+      <c r="K739" t="n">
+        <v>0</v>
+      </c>
+      <c r="L739" t="n">
+        <v>0</v>
+      </c>
+      <c r="M739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N739" t="n">
+        <v>48</v>
+      </c>
+      <c r="O739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q739" t="n">
+        <v>2</v>
+      </c>
+      <c r="R739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B740" t="n">
+        <v>252</v>
+      </c>
+      <c r="C740" t="n">
+        <v>280</v>
+      </c>
+      <c r="D740" t="n">
+        <v>249.0200042724609</v>
+      </c>
+      <c r="E740" t="n">
+        <v>277.3299865722656</v>
+      </c>
+      <c r="F740" t="inlineStr"/>
+      <c r="G740" t="n">
+        <v>17895606</v>
+      </c>
+      <c r="H740" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I740" t="n">
+        <v>12</v>
+      </c>
+      <c r="J740" t="n">
+        <v>2</v>
+      </c>
+      <c r="K740" t="n">
+        <v>0</v>
+      </c>
+      <c r="L740" t="n">
+        <v>0</v>
+      </c>
+      <c r="M740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N740" t="n">
+        <v>49</v>
+      </c>
+      <c r="O740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q740" t="n">
+        <v>1</v>
+      </c>
+      <c r="R740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B741" t="n">
+        <v>279.3800048828125</v>
+      </c>
+      <c r="C741" t="n">
+        <v>298.989990234375</v>
+      </c>
+      <c r="D741" t="n">
+        <v>279.0599975585938</v>
+      </c>
+      <c r="E741" t="n">
+        <v>295.1000061035156</v>
+      </c>
+      <c r="F741" t="inlineStr"/>
+      <c r="G741" t="n">
+        <v>20035347</v>
+      </c>
+      <c r="H741" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I741" t="n">
+        <v>12</v>
+      </c>
+      <c r="J741" t="n">
+        <v>9</v>
+      </c>
+      <c r="K741" t="n">
+        <v>0</v>
+      </c>
+      <c r="L741" t="n">
+        <v>0</v>
+      </c>
+      <c r="M741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N741" t="n">
+        <v>50</v>
+      </c>
+      <c r="O741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B742" t="n">
+        <v>295.1000061035156</v>
+      </c>
+      <c r="C742" t="n">
+        <v>310.3999938964844</v>
+      </c>
+      <c r="D742" t="n">
+        <v>285</v>
+      </c>
+      <c r="E742" t="n">
+        <v>290.010009765625</v>
+      </c>
+      <c r="F742" t="inlineStr"/>
+      <c r="G742" t="n">
+        <v>16249958</v>
+      </c>
+      <c r="H742" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I742" t="n">
+        <v>12</v>
+      </c>
+      <c r="J742" t="n">
+        <v>16</v>
+      </c>
+      <c r="K742" t="n">
+        <v>0</v>
+      </c>
+      <c r="L742" t="n">
+        <v>0</v>
+      </c>
+      <c r="M742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N742" t="n">
+        <v>51</v>
+      </c>
+      <c r="O742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B743" t="n">
+        <v>290.010009765625</v>
+      </c>
+      <c r="C743" t="n">
+        <v>295.0499877929688</v>
+      </c>
+      <c r="D743" t="n">
+        <v>276.489990234375</v>
+      </c>
+      <c r="E743" t="n">
+        <v>293.7799987792969</v>
+      </c>
+      <c r="F743" t="inlineStr"/>
+      <c r="G743" t="n">
+        <v>8840225</v>
+      </c>
+      <c r="H743" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I743" t="n">
+        <v>12</v>
+      </c>
+      <c r="J743" t="n">
+        <v>23</v>
+      </c>
+      <c r="K743" t="n">
+        <v>0</v>
+      </c>
+      <c r="L743" t="n">
+        <v>0</v>
+      </c>
+      <c r="M743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N743" t="n">
+        <v>52</v>
+      </c>
+      <c r="O743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B744" t="n">
+        <v>293.510009765625</v>
+      </c>
+      <c r="C744" t="n">
+        <v>319</v>
+      </c>
+      <c r="D744" t="n">
+        <v>293.1199951171875</v>
+      </c>
+      <c r="E744" t="n">
+        <v>305.3999938964844</v>
+      </c>
+      <c r="F744" t="inlineStr"/>
+      <c r="G744" t="n">
+        <v>16146391</v>
+      </c>
+      <c r="H744" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I744" t="n">
+        <v>12</v>
+      </c>
+      <c r="J744" t="n">
+        <v>30</v>
+      </c>
+      <c r="K744" t="n">
+        <v>0</v>
+      </c>
+      <c r="L744" t="n">
+        <v>0</v>
+      </c>
+      <c r="M744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N744" t="n">
+        <v>1</v>
+      </c>
+      <c r="O744" t="n">
+        <v>1</v>
+      </c>
+      <c r="P744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B745" t="n">
+        <v>305</v>
+      </c>
+      <c r="C745" t="n">
+        <v>306.3999938964844</v>
+      </c>
+      <c r="D745" t="n">
+        <v>266</v>
+      </c>
+      <c r="E745" t="n">
+        <v>271.6000061035156</v>
+      </c>
+      <c r="F745" t="inlineStr"/>
+      <c r="G745" t="n">
+        <v>15828671</v>
+      </c>
+      <c r="H745" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I745" t="n">
+        <v>1</v>
+      </c>
+      <c r="J745" t="n">
+        <v>6</v>
+      </c>
+      <c r="K745" t="n">
+        <v>0</v>
+      </c>
+      <c r="L745" t="n">
+        <v>0</v>
+      </c>
+      <c r="M745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N745" t="n">
+        <v>2</v>
+      </c>
+      <c r="O745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B746" t="n">
+        <v>271.6499938964844</v>
+      </c>
+      <c r="C746" t="n">
+        <v>294</v>
+      </c>
+      <c r="D746" t="n">
+        <v>265.25</v>
+      </c>
+      <c r="E746" t="n">
+        <v>290.3500061035156</v>
+      </c>
+      <c r="F746" t="inlineStr"/>
+      <c r="G746" t="n">
+        <v>13824760</v>
+      </c>
+      <c r="H746" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I746" t="n">
+        <v>1</v>
+      </c>
+      <c r="J746" t="n">
+        <v>13</v>
+      </c>
+      <c r="K746" t="n">
+        <v>0</v>
+      </c>
+      <c r="L746" t="n">
+        <v>0</v>
+      </c>
+      <c r="M746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N746" t="n">
+        <v>3</v>
+      </c>
+      <c r="O746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B747" t="n">
+        <v>291.3999938964844</v>
+      </c>
+      <c r="C747" t="n">
+        <v>292.3999938964844</v>
+      </c>
+      <c r="D747" t="n">
+        <v>256.25</v>
+      </c>
+      <c r="E747" t="n">
+        <v>257.6000061035156</v>
+      </c>
+      <c r="F747" t="inlineStr"/>
+      <c r="G747" t="n">
+        <v>7978387</v>
+      </c>
+      <c r="H747" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I747" t="n">
+        <v>1</v>
+      </c>
+      <c r="J747" t="n">
+        <v>20</v>
+      </c>
+      <c r="K747" t="n">
+        <v>0</v>
+      </c>
+      <c r="L747" t="n">
+        <v>0</v>
+      </c>
+      <c r="M747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N747" t="n">
+        <v>4</v>
+      </c>
+      <c r="O747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B748" t="n">
+        <v>250</v>
+      </c>
+      <c r="C748" t="n">
+        <v>258.6499938964844</v>
+      </c>
+      <c r="D748" t="n">
+        <v>232.6999969482422</v>
+      </c>
+      <c r="E748" t="n">
+        <v>257.7999877929688</v>
+      </c>
+      <c r="F748" t="inlineStr"/>
+      <c r="G748" t="n">
+        <v>8591211</v>
+      </c>
+      <c r="H748" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I748" t="n">
+        <v>1</v>
+      </c>
+      <c r="J748" t="n">
+        <v>27</v>
+      </c>
+      <c r="K748" t="n">
+        <v>0</v>
+      </c>
+      <c r="L748" t="n">
+        <v>0</v>
+      </c>
+      <c r="M748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N748" t="n">
+        <v>5</v>
+      </c>
+      <c r="O748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R748" t="inlineStr"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B749" t="n">
+        <v>250</v>
+      </c>
+      <c r="C749" t="n">
+        <v>252.75</v>
+      </c>
+      <c r="D749" t="n">
+        <v>234.25</v>
+      </c>
+      <c r="E749" t="n">
+        <v>249.1000061035156</v>
+      </c>
+      <c r="F749" t="inlineStr"/>
+      <c r="G749" t="n">
+        <v>7633770</v>
+      </c>
+      <c r="H749" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I749" t="n">
+        <v>2</v>
+      </c>
+      <c r="J749" t="n">
+        <v>3</v>
+      </c>
+      <c r="K749" t="n">
+        <v>0</v>
+      </c>
+      <c r="L749" t="n">
+        <v>0</v>
+      </c>
+      <c r="M749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N749" t="n">
+        <v>6</v>
+      </c>
+      <c r="O749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R749" t="inlineStr"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B750" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="C750" t="n">
+        <v>250.6499938964844</v>
+      </c>
+      <c r="D750" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="E750" t="n">
+        <v>207.5500030517578</v>
+      </c>
+      <c r="F750" t="inlineStr"/>
+      <c r="G750" t="n">
+        <v>11538378</v>
+      </c>
+      <c r="H750" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I750" t="n">
+        <v>2</v>
+      </c>
+      <c r="J750" t="n">
+        <v>10</v>
+      </c>
+      <c r="K750" t="n">
+        <v>0</v>
+      </c>
+      <c r="L750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N750" t="n">
+        <v>7</v>
+      </c>
+      <c r="O750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q750" t="n">
+        <v>2</v>
+      </c>
+      <c r="R750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B751" t="n">
+        <v>203.3999938964844</v>
+      </c>
+      <c r="C751" t="n">
+        <v>211.1999969482422</v>
+      </c>
+      <c r="D751" t="n">
+        <v>193.3500061035156</v>
+      </c>
+      <c r="E751" t="n">
+        <v>195.6000061035156</v>
+      </c>
+      <c r="F751" t="inlineStr"/>
+      <c r="G751" t="n">
+        <v>13412683</v>
+      </c>
+      <c r="H751" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I751" t="n">
+        <v>2</v>
+      </c>
+      <c r="J751" t="n">
+        <v>17</v>
+      </c>
+      <c r="K751" t="n">
+        <v>0</v>
+      </c>
+      <c r="L751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N751" t="n">
+        <v>8</v>
+      </c>
+      <c r="O751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R751" t="inlineStr"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B752" t="n">
+        <v>192.3000030517578</v>
+      </c>
+      <c r="C752" t="n">
+        <v>200.4499969482422</v>
+      </c>
+      <c r="D752" t="n">
+        <v>170.1000061035156</v>
+      </c>
+      <c r="E752" t="n">
+        <v>172.1499938964844</v>
+      </c>
+      <c r="F752" t="inlineStr"/>
+      <c r="G752" t="n">
+        <v>9495146</v>
+      </c>
+      <c r="H752" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I752" t="n">
+        <v>2</v>
+      </c>
+      <c r="J752" t="n">
+        <v>24</v>
+      </c>
+      <c r="K752" t="n">
+        <v>0</v>
+      </c>
+      <c r="L752" t="n">
+        <v>0</v>
+      </c>
+      <c r="M752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N752" t="n">
+        <v>9</v>
+      </c>
+      <c r="O752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R752" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
